--- a/bom_unisolder.xlsx
+++ b/bom_unisolder.xlsx
@@ -1,22 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\valer\DriveVero\FABLAB BERGAMO\2017\Saldatore - Unisolder\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B9CB9EF-4FE6-416F-9CEF-83F6ADAC14DD}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="26004"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18800" yWindow="0" windowWidth="22200" windowHeight="17700"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -30,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="358">
   <si>
     <t>tme.eu</t>
   </si>
@@ -963,20 +960,162 @@
   </si>
   <si>
     <t>U17</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Mouser PN</t>
+  </si>
+  <si>
+    <t>‎MMBD1505ACT-ND‎</t>
+  </si>
+  <si>
+    <t>Mouser Price</t>
+  </si>
+  <si>
+    <t>‎WSLI-.003CT-ND‎</t>
+  </si>
+  <si>
+    <t>296-26323-1-ND </t>
+  </si>
+  <si>
+    <t>MCP4561T-104E/MSCT-ND</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>Column3</t>
+  </si>
+  <si>
+    <t>1276-6733-1-ND</t>
+  </si>
+  <si>
+    <t>‎1276-1249-1-ND‎</t>
+  </si>
+  <si>
+    <t>493-11717-1-ND</t>
+  </si>
+  <si>
+    <t>493-13467-1-ND</t>
+  </si>
+  <si>
+    <t>493-1338-ND</t>
+  </si>
+  <si>
+    <t>1276-1075-1-ND</t>
+  </si>
+  <si>
+    <t>493-13508-1-ND</t>
+  </si>
+  <si>
+    <t>718-1072-1-ND</t>
+  </si>
+  <si>
+    <t>1276-1033-1-ND</t>
+  </si>
+  <si>
+    <t>1276-6455-1-ND</t>
+  </si>
+  <si>
+    <t>1276-2425-1-ND</t>
+  </si>
+  <si>
+    <t>720-1618-1-ND</t>
+  </si>
+  <si>
+    <t>1276-2890-1-ND</t>
+  </si>
+  <si>
+    <t>732-7852-1-ND</t>
+  </si>
+  <si>
+    <t>BAV199Q-7-FDICT-ND</t>
+  </si>
+  <si>
+    <t>WM1021-ND</t>
+  </si>
+  <si>
+    <t>36-3518P-ND</t>
+  </si>
+  <si>
+    <t>WM2501-ND</t>
+  </si>
+  <si>
+    <t>WM23801-ND</t>
+  </si>
+  <si>
+    <t>3M155961-ND</t>
+  </si>
+  <si>
+    <t>MHC10K-ND</t>
+  </si>
+  <si>
+    <t>WM6356-ND</t>
+  </si>
+  <si>
+    <t>WM23800-ND</t>
+  </si>
+  <si>
+    <t>WM2001-ND</t>
+  </si>
+  <si>
+    <t>WM2312-ND</t>
+  </si>
+  <si>
+    <t>WM2745-ND</t>
+  </si>
+  <si>
+    <t>541-0.0JCT-ND</t>
+  </si>
+  <si>
+    <t>732-4026-1-ND</t>
+  </si>
+  <si>
+    <t>732-4046-1-ND</t>
+  </si>
+  <si>
+    <t>732-10757-1-ND</t>
+  </si>
+  <si>
+    <t>S6103-ND</t>
+  </si>
+  <si>
+    <t>MMBT5401LT1GOSCT-ND</t>
+  </si>
+  <si>
+    <t>MMBT5551LT1GOSCT-ND</t>
+  </si>
+  <si>
+    <t>1727-2924-1-ND</t>
+  </si>
+  <si>
+    <t>1727-2930-1-ND</t>
+  </si>
+  <si>
+    <t>SI2315BDS-T1-E3CT-ND</t>
+  </si>
+  <si>
+    <t>541-3983-1-ND</t>
+  </si>
+  <si>
+    <t>541-4207-1-ND</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
-    <numFmt numFmtId="7" formatCode="#,##0.00\ &quot;€&quot;;\-#,##0.00\ &quot;€&quot;"/>
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="#,##0.000000\ &quot;€&quot;"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.000000\ &quot;€&quot;_-;\-* #,##0.000000\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="6">
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;\-#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="#,##0.000000\ &quot;€&quot;"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0.000000\ &quot;€&quot;_-;\-* #,##0.000000\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1021,8 +1160,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1047,6 +1207,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1057,12 +1223,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1070,8 +1242,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1081,17 +1253,17 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1099,28 +1271,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
-    <cellStyle name="Normale 2" xfId="2" xr:uid="{A70351AC-A7CD-4DDF-89DE-9920D020A4B1}"/>
-    <cellStyle name="Valuta" xfId="1" builtinId="4"/>
+  <cellStyles count="9">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
     <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="169" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="#,##0.000000\ &quot;€&quot;"/>
     </dxf>
     <dxf>
       <fill>
@@ -1139,18 +1328,23 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="11" formatCode="#,##0.00\ &quot;€&quot;;\-#,##0.00\ &quot;€&quot;"/>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;\-#,##0.00\ &quot;€&quot;"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="11" formatCode="#,##0.00\ &quot;€&quot;;\-#,##0.00\ &quot;€&quot;"/>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;\-#,##0.00\ &quot;€&quot;"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="#,##0.000000\ &quot;€&quot;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1175,25 +1369,32 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabella5" displayName="Tabella5" ref="B7:J112" totalsRowShown="0" headerRowDxfId="7">
-  <autoFilter ref="B7:J112" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
-  <sortState ref="C8:J112">
-    <sortCondition ref="H7:H112"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabella5" displayName="Tabella5" ref="B7:O112" totalsRowShown="0" headerRowDxfId="8">
+  <autoFilter ref="B7:O112"/>
+  <sortState ref="C8:O112">
+    <sortCondition ref="M7:M112"/>
   </sortState>
-  <tableColumns count="9">
-    <tableColumn id="11" xr3:uid="{0AE64CA8-6706-4939-B296-5E45F3BB321C}" name="REF." dataDxfId="0"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Component"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Unit price" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Min pcs sold or needed" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Total w/o VAT" dataDxfId="4">
+  <tableColumns count="14">
+    <tableColumn id="11" name="REF." dataDxfId="7"/>
+    <tableColumn id="1" name="Component"/>
+    <tableColumn id="2" name="Mouser PN"/>
+    <tableColumn id="13" name="Column2"/>
+    <tableColumn id="12" name="Column1"/>
+    <tableColumn id="6" name="Mouser Price"/>
+    <tableColumn id="14" name="Column3" dataDxfId="0" dataCellStyle="Currency">
+      <calculatedColumnFormula>Tabella5[[#This Row],[Column2]]*Tabella5[[#This Row],[Mouser Price]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" name="Unit price" dataDxfId="1"/>
+    <tableColumn id="5" name="Min pcs sold or needed" dataDxfId="6"/>
+    <tableColumn id="7" name="Total w/o VAT" dataDxfId="5">
       <calculatedColumnFormula>Tabella5[[#This Row],[Unit price]]*Tabella5[[#This Row],[Min pcs sold or needed]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Total with VAT" dataDxfId="3">
-      <calculatedColumnFormula>F8*1.22</calculatedColumnFormula>
+    <tableColumn id="8" name="Total with VAT" dataDxfId="4">
+      <calculatedColumnFormula>K8*1.22</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Supplier" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Project and notes" dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Link "/>
+    <tableColumn id="9" name="Supplier" dataDxfId="3"/>
+    <tableColumn id="4" name="Project and notes" dataDxfId="2"/>
+    <tableColumn id="10" name="Link "/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1242,7 +1443,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1277,7 +1478,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1454,126 +1655,166 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K132"/>
+  <dimension ref="A1:P132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="E108" sqref="E108"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="93" zoomScaleNormal="93" zoomScalePageLayoutView="93" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" style="10" customWidth="1"/>
-    <col min="3" max="3" width="34.85546875" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="14" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" customWidth="1"/>
-    <col min="8" max="8" width="26.42578125" customWidth="1"/>
-    <col min="9" max="9" width="40" style="10" customWidth="1"/>
-    <col min="10" max="10" width="100.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="34.83203125" customWidth="1"/>
+    <col min="4" max="4" width="34.83203125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="6.5" style="10" customWidth="1"/>
+    <col min="7" max="7" width="7" style="10" customWidth="1"/>
+    <col min="8" max="8" width="7" style="26" customWidth="1"/>
+    <col min="9" max="9" width="16.5" style="14" customWidth="1"/>
+    <col min="10" max="10" width="10.5" customWidth="1"/>
+    <col min="11" max="11" width="14.5" customWidth="1"/>
+    <col min="12" max="12" width="13.5" customWidth="1"/>
+    <col min="13" max="13" width="26.5" customWidth="1"/>
+    <col min="14" max="14" width="40" style="10" customWidth="1"/>
+    <col min="15" max="15" width="100.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="A1" s="9"/>
       <c r="B1" s="9"/>
     </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="15" customHeight="1">
       <c r="A2" s="9"/>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-    </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+    </row>
+    <row r="3" spans="1:15" ht="15" customHeight="1">
       <c r="A3" s="9"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-    </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+    </row>
+    <row r="4" spans="1:15" ht="15" customHeight="1">
       <c r="A4" s="9"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-    </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+    </row>
+    <row r="5" spans="1:15" ht="15" customHeight="1">
       <c r="A5" s="9"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
     </row>
-    <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="42">
       <c r="A7" s="9"/>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="22" t="s">
         <v>224</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="H7" s="27" t="s">
+        <v>319</v>
+      </c>
+      <c r="I7" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="J7" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="K7" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="L7" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="M7" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="N7" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="O7" s="6" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="A8" s="9"/>
       <c r="B8" s="9" t="s">
         <v>223</v>
@@ -1581,31 +1822,47 @@
       <c r="C8" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="24" t="s">
+        <v>313</v>
+      </c>
+      <c r="E8" s="24">
+        <v>1</v>
+      </c>
+      <c r="F8" s="24">
+        <v>1</v>
+      </c>
+      <c r="G8" s="24">
+        <v>0.34</v>
+      </c>
+      <c r="H8" s="28">
+        <f>Tabella5[[#This Row],[Column2]]*Tabella5[[#This Row],[Mouser Price]]</f>
+        <v>0.34</v>
+      </c>
+      <c r="I8" s="14">
         <v>5.1299999999999998E-2</v>
       </c>
-      <c r="E8" s="1">
+      <c r="J8" s="1">
         <v>10</v>
       </c>
-      <c r="F8" s="4">
+      <c r="K8" s="4">
         <f>Tabella5[[#This Row],[Unit price]]*Tabella5[[#This Row],[Min pcs sold or needed]]</f>
         <v>0.51300000000000001</v>
       </c>
-      <c r="G8" s="4">
-        <f t="shared" ref="G8:G39" si="0">F8*1.22</f>
+      <c r="L8" s="4">
+        <f t="shared" ref="L8:L39" si="0">K8*1.22</f>
         <v>0.62585999999999997</v>
       </c>
-      <c r="H8" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J8" s="10" t="s">
+      <c r="M8" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O8" s="10" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="A9" s="9"/>
       <c r="B9" s="9" t="s">
         <v>225</v>
@@ -1613,31 +1870,47 @@
       <c r="C9" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="E9" s="24">
+        <v>1</v>
+      </c>
+      <c r="F9" s="24">
+        <v>1</v>
+      </c>
+      <c r="G9" s="12">
+        <v>1.7</v>
+      </c>
+      <c r="H9" s="29">
+        <f>Tabella5[[#This Row],[Column2]]*Tabella5[[#This Row],[Mouser Price]]</f>
+        <v>1.7</v>
+      </c>
+      <c r="I9" s="14">
         <v>1.04</v>
       </c>
-      <c r="E9" s="1">
+      <c r="J9" s="1">
         <v>10</v>
       </c>
-      <c r="F9" s="4">
+      <c r="K9" s="4">
         <f>Tabella5[[#This Row],[Unit price]]*Tabella5[[#This Row],[Min pcs sold or needed]]</f>
         <v>10.4</v>
       </c>
-      <c r="G9" s="4">
+      <c r="L9" s="4">
         <f t="shared" si="0"/>
         <v>12.688000000000001</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="M9" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="I9" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J9" s="10" t="s">
+      <c r="N9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="10" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="A10" s="9"/>
       <c r="B10" s="9" t="s">
         <v>226</v>
@@ -1645,31 +1918,39 @@
       <c r="C10" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="29">
+        <f>Tabella5[[#This Row],[Column2]]*Tabella5[[#This Row],[Mouser Price]]</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="14">
         <v>0.35599999999999998</v>
       </c>
-      <c r="E10" s="1">
+      <c r="J10" s="1">
         <v>1</v>
       </c>
-      <c r="F10" s="4">
+      <c r="K10" s="4">
         <f>Tabella5[[#This Row],[Unit price]]*Tabella5[[#This Row],[Min pcs sold or needed]]</f>
         <v>0.35599999999999998</v>
       </c>
-      <c r="G10" s="4">
+      <c r="L10" s="4">
         <f t="shared" si="0"/>
         <v>0.43431999999999998</v>
       </c>
-      <c r="H10" s="18" t="s">
+      <c r="M10" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="I10" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J10" s="10" t="s">
+      <c r="N10" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="10" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="A11" s="9"/>
       <c r="B11" s="9" t="s">
         <v>227</v>
@@ -1677,31 +1958,47 @@
       <c r="C11" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="24" t="s">
+        <v>316</v>
+      </c>
+      <c r="E11" s="24">
+        <v>1</v>
+      </c>
+      <c r="F11" s="24">
+        <v>1</v>
+      </c>
+      <c r="G11" s="12">
+        <v>1.48</v>
+      </c>
+      <c r="H11" s="29">
+        <f>Tabella5[[#This Row],[Column2]]*Tabella5[[#This Row],[Mouser Price]]</f>
+        <v>1.48</v>
+      </c>
+      <c r="I11" s="14">
         <v>1.96</v>
       </c>
-      <c r="E11" s="1">
+      <c r="J11" s="1">
         <v>2</v>
       </c>
-      <c r="F11" s="4">
+      <c r="K11" s="4">
         <f>Tabella5[[#This Row],[Unit price]]*Tabella5[[#This Row],[Min pcs sold or needed]]</f>
         <v>3.92</v>
       </c>
-      <c r="G11" s="4">
+      <c r="L11" s="4">
         <f t="shared" si="0"/>
         <v>4.7824</v>
       </c>
-      <c r="H11" s="18" t="s">
+      <c r="M11" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="I11" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J11" s="10" t="s">
+      <c r="N11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O11" s="10" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="A12" s="9"/>
       <c r="B12" s="9" t="s">
         <v>234</v>
@@ -1709,31 +2006,39 @@
       <c r="C12" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="29">
+        <f>Tabella5[[#This Row],[Column2]]*Tabella5[[#This Row],[Mouser Price]]</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="14">
         <v>3.87</v>
       </c>
-      <c r="E12" s="1">
+      <c r="J12" s="1">
         <v>1</v>
       </c>
-      <c r="F12" s="4">
+      <c r="K12" s="4">
         <f>Tabella5[[#This Row],[Unit price]]*Tabella5[[#This Row],[Min pcs sold or needed]]</f>
         <v>3.87</v>
       </c>
-      <c r="G12" s="4">
+      <c r="L12" s="4">
         <f t="shared" si="0"/>
         <v>4.7214</v>
       </c>
-      <c r="H12" s="18" t="s">
+      <c r="M12" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="I12" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J12" s="10" t="s">
+      <c r="N12" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O12" s="10" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="15">
       <c r="A13" s="9"/>
       <c r="B13" s="9" t="s">
         <v>235</v>
@@ -1741,31 +2046,47 @@
       <c r="C13" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="E13" s="25">
+        <v>1</v>
+      </c>
+      <c r="F13" s="25">
+        <v>1</v>
+      </c>
+      <c r="G13" s="12">
+        <v>0.99</v>
+      </c>
+      <c r="H13" s="29">
+        <f>Tabella5[[#This Row],[Column2]]*Tabella5[[#This Row],[Mouser Price]]</f>
+        <v>0.99</v>
+      </c>
+      <c r="I13" s="14">
         <v>1.27</v>
       </c>
-      <c r="E13" s="1">
+      <c r="J13" s="1">
         <v>1</v>
       </c>
-      <c r="F13" s="4">
+      <c r="K13" s="4">
         <f>Tabella5[[#This Row],[Unit price]]*Tabella5[[#This Row],[Min pcs sold or needed]]</f>
         <v>1.27</v>
       </c>
-      <c r="G13" s="4">
+      <c r="L13" s="4">
         <f t="shared" si="0"/>
         <v>1.5493999999999999</v>
       </c>
-      <c r="H13" s="18" t="s">
+      <c r="M13" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="I13" s="9" t="s">
+      <c r="N13" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="J13" s="10" t="s">
+      <c r="O13" s="10" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="A14" s="9"/>
       <c r="B14" s="9" t="s">
         <v>236</v>
@@ -1773,121 +2094,143 @@
       <c r="C14" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12">
+        <v>0.96</v>
+      </c>
+      <c r="H14" s="29">
+        <f>Tabella5[[#This Row],[Column2]]*Tabella5[[#This Row],[Mouser Price]]</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="14">
         <v>0.95599999999999996</v>
       </c>
-      <c r="E14" s="1">
+      <c r="J14" s="1">
         <v>1</v>
       </c>
-      <c r="F14" s="4">
+      <c r="K14" s="4">
         <f>Tabella5[[#This Row],[Unit price]]*Tabella5[[#This Row],[Min pcs sold or needed]]</f>
         <v>0.95599999999999996</v>
       </c>
-      <c r="G14" s="4">
+      <c r="L14" s="4">
         <f t="shared" si="0"/>
         <v>1.16632</v>
       </c>
-      <c r="H14" s="18" t="s">
+      <c r="M14" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="I14" s="9" t="s">
+      <c r="N14" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="J14" s="10" t="s">
+      <c r="O14" s="10" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="14">
+      <c r="H15" s="26">
+        <f>Tabella5[[#This Row],[Column2]]*Tabella5[[#This Row],[Mouser Price]]</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="14">
         <v>58</v>
       </c>
-      <c r="E15" s="1">
+      <c r="J15" s="1">
         <v>1</v>
       </c>
-      <c r="F15" s="4">
+      <c r="K15" s="4">
         <f>Tabella5[[#This Row],[Unit price]]*Tabella5[[#This Row],[Min pcs sold or needed]]</f>
         <v>58</v>
       </c>
-      <c r="G15" s="4">
+      <c r="L15" s="4">
         <f t="shared" si="0"/>
         <v>70.760000000000005</v>
       </c>
-      <c r="H15" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J15" s="10" t="s">
+      <c r="M15" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N15" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O15" s="10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="D16" s="14">
+      <c r="H16" s="26">
+        <f>Tabella5[[#This Row],[Column2]]*Tabella5[[#This Row],[Mouser Price]]</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="14">
         <v>23.2</v>
       </c>
-      <c r="E16" s="1">
+      <c r="J16" s="1">
         <v>1</v>
       </c>
-      <c r="F16" s="4">
+      <c r="K16" s="4">
         <f>Tabella5[[#This Row],[Unit price]]*Tabella5[[#This Row],[Min pcs sold or needed]]</f>
         <v>23.2</v>
       </c>
-      <c r="G16" s="4">
+      <c r="L16" s="4">
         <f t="shared" si="0"/>
         <v>28.303999999999998</v>
       </c>
-      <c r="H16" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J16" s="10" t="s">
+      <c r="M16" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N16" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O16" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="D17" s="14">
+      <c r="H17" s="26">
+        <f>Tabella5[[#This Row],[Column2]]*Tabella5[[#This Row],[Mouser Price]]</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="14">
         <v>18.190000000000001</v>
       </c>
-      <c r="E17" s="1">
+      <c r="J17" s="1">
         <v>1</v>
       </c>
-      <c r="F17" s="4">
+      <c r="K17" s="4">
         <f>Tabella5[[#This Row],[Unit price]]*Tabella5[[#This Row],[Min pcs sold or needed]]</f>
         <v>18.190000000000001</v>
       </c>
-      <c r="G17" s="4">
+      <c r="L17" s="4">
         <f t="shared" si="0"/>
         <v>22.191800000000001</v>
       </c>
-      <c r="H17" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I17" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J17" s="10" t="s">
+      <c r="M17" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N17" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O17" s="10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15">
       <c r="A18" s="9"/>
       <c r="B18" s="9" t="s">
         <v>239</v>
@@ -1895,31 +2238,47 @@
       <c r="C18" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="24" t="s">
+        <v>321</v>
+      </c>
+      <c r="E18" s="10">
+        <v>12</v>
+      </c>
+      <c r="F18" s="10">
+        <v>20</v>
+      </c>
+      <c r="G18" s="10">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="H18" s="26">
+        <f>Tabella5[[#This Row],[Column2]]*Tabella5[[#This Row],[Mouser Price]]</f>
+        <v>0.624</v>
+      </c>
+      <c r="I18" s="14">
         <v>5.9699999999999996E-3</v>
       </c>
-      <c r="E18" s="1">
+      <c r="J18" s="1">
         <v>100</v>
       </c>
-      <c r="F18" s="4">
+      <c r="K18" s="4">
         <f>Tabella5[[#This Row],[Unit price]]*Tabella5[[#This Row],[Min pcs sold or needed]]</f>
         <v>0.59699999999999998</v>
       </c>
-      <c r="G18" s="4">
+      <c r="L18" s="4">
         <f t="shared" si="0"/>
         <v>0.72833999999999999</v>
       </c>
-      <c r="H18" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J18" s="10" t="s">
+      <c r="M18" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N18" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O18" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="15">
       <c r="A19" s="9"/>
       <c r="B19" s="9" t="s">
         <v>240</v>
@@ -1927,31 +2286,47 @@
       <c r="C19" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="32" t="s">
+        <v>320</v>
+      </c>
+      <c r="E19" s="12">
+        <v>11</v>
+      </c>
+      <c r="F19" s="12">
+        <v>20</v>
+      </c>
+      <c r="G19" s="12">
+        <v>0.129</v>
+      </c>
+      <c r="H19" s="29">
+        <f>Tabella5[[#This Row],[Column2]]*Tabella5[[#This Row],[Mouser Price]]</f>
+        <v>1.419</v>
+      </c>
+      <c r="I19" s="14">
         <v>1.1220000000000001E-2</v>
       </c>
-      <c r="E19" s="1">
+      <c r="J19" s="1">
         <v>100</v>
       </c>
-      <c r="F19" s="4">
+      <c r="K19" s="4">
         <f>Tabella5[[#This Row],[Unit price]]*Tabella5[[#This Row],[Min pcs sold or needed]]</f>
         <v>1.1220000000000001</v>
       </c>
-      <c r="G19" s="4">
+      <c r="L19" s="4">
         <f t="shared" si="0"/>
         <v>1.3688400000000001</v>
       </c>
-      <c r="H19" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I19" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J19" s="10" t="s">
+      <c r="M19" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N19" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O19" s="10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="15">
       <c r="A20" s="9"/>
       <c r="B20" s="9" t="s">
         <v>241</v>
@@ -1959,31 +2334,45 @@
       <c r="C20" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="E20" s="12">
+        <v>1</v>
+      </c>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12">
+        <v>0.47</v>
+      </c>
+      <c r="H20" s="29">
+        <f>Tabella5[[#This Row],[Column2]]*Tabella5[[#This Row],[Mouser Price]]</f>
+        <v>0.47</v>
+      </c>
+      <c r="I20" s="14">
         <v>0.14499999999999999</v>
       </c>
-      <c r="E20" s="1">
+      <c r="J20" s="1">
         <v>10</v>
       </c>
-      <c r="F20" s="4">
+      <c r="K20" s="4">
         <f>Tabella5[[#This Row],[Unit price]]*Tabella5[[#This Row],[Min pcs sold or needed]]</f>
         <v>1.45</v>
       </c>
-      <c r="G20" s="4">
+      <c r="L20" s="4">
         <f t="shared" si="0"/>
         <v>1.7689999999999999</v>
       </c>
-      <c r="H20" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J20" s="10" t="s">
+      <c r="M20" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N20" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O20" s="10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="15">
       <c r="A21" s="9"/>
       <c r="B21" s="9" t="s">
         <v>242</v>
@@ -1991,31 +2380,45 @@
       <c r="C21" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="25" t="s">
+        <v>323</v>
+      </c>
+      <c r="E21" s="17">
+        <v>2</v>
+      </c>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17">
+        <v>0.48</v>
+      </c>
+      <c r="H21" s="30">
+        <f>Tabella5[[#This Row],[Column2]]*Tabella5[[#This Row],[Mouser Price]]</f>
+        <v>0.96</v>
+      </c>
+      <c r="I21" s="14">
         <v>0.14122000000000001</v>
       </c>
-      <c r="E21" s="1">
-        <v>5</v>
-      </c>
-      <c r="F21" s="4">
+      <c r="J21" s="1">
+        <v>5</v>
+      </c>
+      <c r="K21" s="4">
         <f>Tabella5[[#This Row],[Unit price]]*Tabella5[[#This Row],[Min pcs sold or needed]]</f>
         <v>0.70610000000000006</v>
       </c>
-      <c r="G21" s="4">
+      <c r="L21" s="4">
         <f t="shared" si="0"/>
         <v>0.86144200000000004</v>
       </c>
-      <c r="H21" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I21" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J21" s="10" t="s">
+      <c r="M21" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N21" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21" s="10" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="15">
       <c r="A22" s="9"/>
       <c r="B22" s="9" t="s">
         <v>243</v>
@@ -2023,31 +2426,45 @@
       <c r="C22" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D22" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="E22" s="12">
+        <v>1</v>
+      </c>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12">
+        <v>0.24</v>
+      </c>
+      <c r="H22" s="29">
+        <f>Tabella5[[#This Row],[Column2]]*Tabella5[[#This Row],[Mouser Price]]</f>
+        <v>0.24</v>
+      </c>
+      <c r="I22" s="14">
         <v>4.8640000000000003E-2</v>
       </c>
-      <c r="E22" s="1">
+      <c r="J22" s="1">
         <v>25</v>
       </c>
-      <c r="F22" s="4">
+      <c r="K22" s="4">
         <f>Tabella5[[#This Row],[Unit price]]*Tabella5[[#This Row],[Min pcs sold or needed]]</f>
         <v>1.216</v>
       </c>
-      <c r="G22" s="4">
+      <c r="L22" s="4">
         <f t="shared" si="0"/>
         <v>1.4835199999999999</v>
       </c>
-      <c r="H22" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I22" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J22" s="10" t="s">
+      <c r="M22" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N22" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O22" s="10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="15">
       <c r="A23" s="9"/>
       <c r="B23" s="9" t="s">
         <v>244</v>
@@ -2055,31 +2472,45 @@
       <c r="C23" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D23" s="25" t="s">
+        <v>325</v>
+      </c>
+      <c r="E23" s="12">
+        <v>3</v>
+      </c>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12">
+        <v>0.27</v>
+      </c>
+      <c r="H23" s="29">
+        <f>Tabella5[[#This Row],[Column2]]*Tabella5[[#This Row],[Mouser Price]]</f>
+        <v>0.81</v>
+      </c>
+      <c r="I23" s="14">
         <v>2.4799999999999999E-2</v>
       </c>
-      <c r="E23" s="1">
+      <c r="J23" s="1">
         <v>100</v>
       </c>
-      <c r="F23" s="4">
+      <c r="K23" s="4">
         <f>Tabella5[[#This Row],[Unit price]]*Tabella5[[#This Row],[Min pcs sold or needed]]</f>
         <v>2.48</v>
       </c>
-      <c r="G23" s="4">
+      <c r="L23" s="4">
         <f t="shared" si="0"/>
         <v>3.0255999999999998</v>
       </c>
-      <c r="H23" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I23" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J23" s="10" t="s">
+      <c r="M23" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N23" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O23" s="10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="15">
       <c r="A24" s="9"/>
       <c r="B24" s="9" t="s">
         <v>245</v>
@@ -2087,31 +2518,45 @@
       <c r="C24" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D24" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="E24" s="12">
+        <v>1</v>
+      </c>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12">
+        <v>0.47</v>
+      </c>
+      <c r="H24" s="29">
+        <f>Tabella5[[#This Row],[Column2]]*Tabella5[[#This Row],[Mouser Price]]</f>
+        <v>0.47</v>
+      </c>
+      <c r="I24" s="14">
         <v>0.12875</v>
       </c>
-      <c r="E24" s="1">
-        <v>5</v>
-      </c>
-      <c r="F24" s="4">
+      <c r="J24" s="1">
+        <v>5</v>
+      </c>
+      <c r="K24" s="4">
         <f>Tabella5[[#This Row],[Unit price]]*Tabella5[[#This Row],[Min pcs sold or needed]]</f>
         <v>0.64375000000000004</v>
       </c>
-      <c r="G24" s="4">
+      <c r="L24" s="4">
         <f t="shared" si="0"/>
         <v>0.78537500000000005</v>
       </c>
-      <c r="H24" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I24" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J24" s="10" t="s">
+      <c r="M24" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N24" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O24" s="10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="15">
       <c r="A25" s="9"/>
       <c r="B25" s="9" t="s">
         <v>246</v>
@@ -2119,31 +2564,45 @@
       <c r="C25" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D25" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="E25" s="12">
+        <v>1</v>
+      </c>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="H25" s="29">
+        <f>Tabella5[[#This Row],[Column2]]*Tabella5[[#This Row],[Mouser Price]]</f>
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="I25" s="14">
         <v>0.53276000000000001</v>
       </c>
-      <c r="E25" s="1">
+      <c r="J25" s="1">
         <v>2</v>
       </c>
-      <c r="F25" s="4">
+      <c r="K25" s="4">
         <f>Tabella5[[#This Row],[Unit price]]*Tabella5[[#This Row],[Min pcs sold or needed]]</f>
         <v>1.06552</v>
       </c>
-      <c r="G25" s="4">
+      <c r="L25" s="4">
         <f t="shared" si="0"/>
         <v>1.2999343999999999</v>
       </c>
-      <c r="H25" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I25" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J25" s="10" t="s">
+      <c r="M25" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N25" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O25" s="10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="15">
       <c r="A26" s="9"/>
       <c r="B26" s="9" t="s">
         <v>247</v>
@@ -2151,31 +2610,45 @@
       <c r="C26" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D26" s="14">
+      <c r="D26" s="25" t="s">
+        <v>328</v>
+      </c>
+      <c r="E26" s="12">
+        <v>10</v>
+      </c>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="H26" s="29">
+        <f>Tabella5[[#This Row],[Column2]]*Tabella5[[#This Row],[Mouser Price]]</f>
+        <v>0.53</v>
+      </c>
+      <c r="I26" s="14">
         <v>5.5300000000000002E-3</v>
       </c>
-      <c r="E26" s="1">
+      <c r="J26" s="1">
         <v>100</v>
       </c>
-      <c r="F26" s="4">
+      <c r="K26" s="4">
         <f>Tabella5[[#This Row],[Unit price]]*Tabella5[[#This Row],[Min pcs sold or needed]]</f>
         <v>0.55300000000000005</v>
       </c>
-      <c r="G26" s="4">
+      <c r="L26" s="4">
         <f t="shared" si="0"/>
         <v>0.67466000000000004</v>
       </c>
-      <c r="H26" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I26" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J26" s="10" t="s">
+      <c r="M26" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N26" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O26" s="10" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="15">
       <c r="A27" s="9"/>
       <c r="B27" s="9" t="s">
         <v>248</v>
@@ -2183,31 +2656,45 @@
       <c r="C27" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="D27" s="14">
+      <c r="D27" s="25" t="s">
+        <v>329</v>
+      </c>
+      <c r="E27" s="12">
+        <v>7</v>
+      </c>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="H27" s="29">
+        <f>Tabella5[[#This Row],[Column2]]*Tabella5[[#This Row],[Mouser Price]]</f>
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="I27" s="14">
         <v>1.95E-2</v>
       </c>
-      <c r="E27" s="1">
+      <c r="J27" s="1">
         <v>100</v>
       </c>
-      <c r="F27" s="4">
+      <c r="K27" s="4">
         <f>Tabella5[[#This Row],[Unit price]]*Tabella5[[#This Row],[Min pcs sold or needed]]</f>
         <v>1.95</v>
       </c>
-      <c r="G27" s="4">
+      <c r="L27" s="4">
         <f t="shared" si="0"/>
         <v>2.379</v>
       </c>
-      <c r="H27" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I27" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J27" s="10" t="s">
+      <c r="M27" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N27" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O27" s="10" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="15">
       <c r="A28" s="9"/>
       <c r="B28" s="9" t="s">
         <v>249</v>
@@ -2215,31 +2702,47 @@
       <c r="C28" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="14">
+      <c r="D28" s="25" t="s">
+        <v>331</v>
+      </c>
+      <c r="E28" s="12">
+        <v>2</v>
+      </c>
+      <c r="F28" s="12">
+        <v>10</v>
+      </c>
+      <c r="G28" s="12">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="H28" s="29">
+        <f>Tabella5[[#This Row],[Column2]]*Tabella5[[#This Row],[Mouser Price]]</f>
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="I28" s="14">
         <v>4.7500000000000001E-2</v>
       </c>
-      <c r="E28" s="1">
+      <c r="J28" s="1">
         <v>100</v>
       </c>
-      <c r="F28" s="4">
+      <c r="K28" s="4">
         <f>Tabella5[[#This Row],[Unit price]]*Tabella5[[#This Row],[Min pcs sold or needed]]</f>
         <v>4.75</v>
       </c>
-      <c r="G28" s="4">
+      <c r="L28" s="4">
         <f t="shared" si="0"/>
         <v>5.7949999999999999</v>
       </c>
-      <c r="H28" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I28" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J28" s="10" t="s">
+      <c r="M28" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N28" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O28" s="10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="15">
       <c r="A29" s="9"/>
       <c r="B29" s="9" t="s">
         <v>250</v>
@@ -2247,31 +2750,45 @@
       <c r="C29" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="D29" s="14">
+      <c r="D29" s="25" t="s">
+        <v>330</v>
+      </c>
+      <c r="E29" s="12">
+        <v>4</v>
+      </c>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="H29" s="29">
+        <f>Tabella5[[#This Row],[Column2]]*Tabella5[[#This Row],[Mouser Price]]</f>
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="I29" s="14">
         <v>6.7799999999999996E-3</v>
       </c>
-      <c r="E29" s="1">
+      <c r="J29" s="1">
         <v>100</v>
       </c>
-      <c r="F29" s="4">
+      <c r="K29" s="4">
         <f>Tabella5[[#This Row],[Unit price]]*Tabella5[[#This Row],[Min pcs sold or needed]]</f>
         <v>0.67799999999999994</v>
       </c>
-      <c r="G29" s="4">
+      <c r="L29" s="4">
         <f t="shared" si="0"/>
         <v>0.8271599999999999</v>
       </c>
-      <c r="H29" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I29" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J29" s="10" t="s">
+      <c r="M29" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N29" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O29" s="10" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="15">
       <c r="A30" s="9"/>
       <c r="B30" s="9" t="s">
         <v>251</v>
@@ -2279,31 +2796,45 @@
       <c r="C30" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="D30" s="14">
+      <c r="D30" s="25" t="s">
+        <v>332</v>
+      </c>
+      <c r="E30" s="12">
+        <v>1</v>
+      </c>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H30" s="29">
+        <f>Tabella5[[#This Row],[Column2]]*Tabella5[[#This Row],[Mouser Price]]</f>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I30" s="14">
         <v>0.124</v>
       </c>
-      <c r="E30" s="1">
+      <c r="J30" s="1">
         <v>10</v>
       </c>
-      <c r="F30" s="4">
+      <c r="K30" s="4">
         <f>Tabella5[[#This Row],[Unit price]]*Tabella5[[#This Row],[Min pcs sold or needed]]</f>
         <v>1.24</v>
       </c>
-      <c r="G30" s="4">
+      <c r="L30" s="4">
         <f t="shared" si="0"/>
         <v>1.5127999999999999</v>
       </c>
-      <c r="H30" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I30" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J30" s="10" t="s">
+      <c r="M30" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N30" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O30" s="10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="15">
       <c r="A31" s="9"/>
       <c r="B31" s="9" t="s">
         <v>252</v>
@@ -2311,31 +2842,45 @@
       <c r="C31" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="D31" s="14">
+      <c r="D31" s="32" t="s">
+        <v>333</v>
+      </c>
+      <c r="E31" s="12">
+        <v>1</v>
+      </c>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H31" s="29">
+        <f>Tabella5[[#This Row],[Column2]]*Tabella5[[#This Row],[Mouser Price]]</f>
+        <v>0.1</v>
+      </c>
+      <c r="I31" s="14">
         <v>8.5299999999999994E-3</v>
       </c>
-      <c r="E31" s="1">
+      <c r="J31" s="1">
         <v>100</v>
       </c>
-      <c r="F31" s="4">
+      <c r="K31" s="4">
         <f>Tabella5[[#This Row],[Unit price]]*Tabella5[[#This Row],[Min pcs sold or needed]]</f>
         <v>0.85299999999999998</v>
       </c>
-      <c r="G31" s="4">
+      <c r="L31" s="4">
         <f t="shared" si="0"/>
         <v>1.0406599999999999</v>
       </c>
-      <c r="H31" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I31" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J31" s="10" t="s">
+      <c r="M31" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N31" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O31" s="10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="15">
       <c r="A32" s="9"/>
       <c r="B32" s="9" t="s">
         <v>253</v>
@@ -2343,61 +2888,89 @@
       <c r="C32" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D32" s="14">
+      <c r="D32" s="32" t="s">
+        <v>334</v>
+      </c>
+      <c r="E32" s="12">
+        <v>3</v>
+      </c>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12">
+        <v>0.24</v>
+      </c>
+      <c r="H32" s="29">
+        <f>Tabella5[[#This Row],[Column2]]*Tabella5[[#This Row],[Mouser Price]]</f>
+        <v>0.72</v>
+      </c>
+      <c r="I32" s="14">
         <v>2.52E-2</v>
       </c>
-      <c r="E32" s="1">
+      <c r="J32" s="1">
         <v>25</v>
       </c>
-      <c r="F32" s="4">
+      <c r="K32" s="4">
         <f>Tabella5[[#This Row],[Unit price]]*Tabella5[[#This Row],[Min pcs sold or needed]]</f>
         <v>0.63</v>
       </c>
-      <c r="G32" s="4">
+      <c r="L32" s="4">
         <f t="shared" si="0"/>
         <v>0.76859999999999995</v>
       </c>
-      <c r="H32" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I32" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J32" s="10" t="s">
+      <c r="M32" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N32" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O32" s="10" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="15">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
       <c r="C33" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="D33" s="14">
+      <c r="D33" s="25" t="s">
+        <v>335</v>
+      </c>
+      <c r="E33" s="12">
+        <v>10</v>
+      </c>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12">
+        <v>0.32</v>
+      </c>
+      <c r="H33" s="29">
+        <f>Tabella5[[#This Row],[Column2]]*Tabella5[[#This Row],[Mouser Price]]</f>
+        <v>3.2</v>
+      </c>
+      <c r="I33" s="14">
         <v>0.24099999999999999</v>
       </c>
-      <c r="E33" s="1">
+      <c r="J33" s="1">
         <v>10</v>
       </c>
-      <c r="F33" s="4">
+      <c r="K33" s="4">
         <f>Tabella5[[#This Row],[Unit price]]*Tabella5[[#This Row],[Min pcs sold or needed]]</f>
         <v>2.41</v>
       </c>
-      <c r="G33" s="4">
+      <c r="L33" s="4">
         <f t="shared" si="0"/>
         <v>2.9401999999999999</v>
       </c>
-      <c r="H33" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I33" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J33" s="10" t="s">
+      <c r="M33" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N33" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O33" s="10" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="15">
       <c r="A34" s="9"/>
       <c r="B34" s="9" t="s">
         <v>254</v>
@@ -2405,211 +2978,309 @@
       <c r="C34" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="D34" s="14">
+      <c r="D34" s="25" t="s">
+        <v>336</v>
+      </c>
+      <c r="E34" s="12">
+        <v>2</v>
+      </c>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12">
+        <v>0.27</v>
+      </c>
+      <c r="H34" s="29">
+        <f>Tabella5[[#This Row],[Column2]]*Tabella5[[#This Row],[Mouser Price]]</f>
+        <v>0.54</v>
+      </c>
+      <c r="I34" s="14">
         <v>0.1719</v>
       </c>
-      <c r="E34" s="1">
-        <v>5</v>
-      </c>
-      <c r="F34" s="4">
+      <c r="J34" s="1">
+        <v>5</v>
+      </c>
+      <c r="K34" s="4">
         <f>Tabella5[[#This Row],[Unit price]]*Tabella5[[#This Row],[Min pcs sold or needed]]</f>
         <v>0.85949999999999993</v>
       </c>
-      <c r="G34" s="4">
+      <c r="L34" s="4">
         <f t="shared" si="0"/>
         <v>1.0485899999999999</v>
       </c>
-      <c r="H34" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I34" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J34" s="10" t="s">
+      <c r="M34" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N34" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O34" s="10" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="15">
       <c r="A35" s="9"/>
       <c r="B35" s="9"/>
       <c r="C35" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="D35" s="14">
+      <c r="D35" s="25" t="s">
+        <v>337</v>
+      </c>
+      <c r="E35" s="12">
+        <v>20</v>
+      </c>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12">
+        <v>0.17</v>
+      </c>
+      <c r="H35" s="29">
+        <f>Tabella5[[#This Row],[Column2]]*Tabella5[[#This Row],[Mouser Price]]</f>
+        <v>3.4000000000000004</v>
+      </c>
+      <c r="I35" s="14">
         <v>5.7509999999999999E-2</v>
       </c>
-      <c r="E35" s="1">
+      <c r="J35" s="1">
         <v>20</v>
       </c>
-      <c r="F35" s="4">
+      <c r="K35" s="4">
         <f>Tabella5[[#This Row],[Unit price]]*Tabella5[[#This Row],[Min pcs sold or needed]]</f>
         <v>1.1501999999999999</v>
       </c>
-      <c r="G35" s="4">
+      <c r="L35" s="4">
         <f t="shared" si="0"/>
         <v>1.4032439999999999</v>
       </c>
-      <c r="H35" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I35" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J35" s="9" t="s">
+      <c r="M35" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N35" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O35" s="9" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" ht="15">
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
       <c r="C36" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="D36" s="14">
+      <c r="D36" s="25" t="s">
+        <v>335</v>
+      </c>
+      <c r="E36" s="12">
+        <v>10</v>
+      </c>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="H36" s="29">
+        <f>Tabella5[[#This Row],[Column2]]*Tabella5[[#This Row],[Mouser Price]]</f>
+        <v>3.03</v>
+      </c>
+      <c r="I36" s="14">
         <v>0.24099999999999999</v>
       </c>
-      <c r="E36" s="1">
+      <c r="J36" s="1">
         <v>10</v>
       </c>
-      <c r="F36" s="4">
+      <c r="K36" s="4">
         <f>Tabella5[[#This Row],[Unit price]]*Tabella5[[#This Row],[Min pcs sold or needed]]</f>
         <v>2.41</v>
       </c>
-      <c r="G36" s="4">
+      <c r="L36" s="4">
         <f t="shared" si="0"/>
         <v>2.9401999999999999</v>
       </c>
-      <c r="H36" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I36" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J36" s="10" t="s">
+      <c r="M36" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N36" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O36" s="10" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" ht="15">
       <c r="A37" s="9"/>
       <c r="B37" s="9"/>
       <c r="C37" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="D37" s="14">
+      <c r="D37" s="25" t="s">
+        <v>342</v>
+      </c>
+      <c r="E37" s="12">
+        <v>2</v>
+      </c>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12">
+        <v>0.67</v>
+      </c>
+      <c r="H37" s="29">
+        <f>Tabella5[[#This Row],[Column2]]*Tabella5[[#This Row],[Mouser Price]]</f>
+        <v>1.34</v>
+      </c>
+      <c r="I37" s="14">
         <v>0.223</v>
       </c>
-      <c r="E37" s="1">
+      <c r="J37" s="1">
         <v>2</v>
       </c>
-      <c r="F37" s="4">
+      <c r="K37" s="4">
         <f>Tabella5[[#This Row],[Unit price]]*Tabella5[[#This Row],[Min pcs sold or needed]]</f>
         <v>0.44600000000000001</v>
       </c>
-      <c r="G37" s="4">
+      <c r="L37" s="4">
         <f t="shared" si="0"/>
         <v>0.54412000000000005</v>
       </c>
-      <c r="H37" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I37" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J37" s="10" t="s">
+      <c r="M37" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N37" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O37" s="10" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" ht="15">
       <c r="A38" s="9"/>
       <c r="B38" s="9"/>
       <c r="C38" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="D38" s="14">
+      <c r="D38" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="E38" s="12">
+        <v>3</v>
+      </c>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12">
+        <v>1.05</v>
+      </c>
+      <c r="H38" s="29">
+        <f>Tabella5[[#This Row],[Column2]]*Tabella5[[#This Row],[Mouser Price]]</f>
+        <v>3.1500000000000004</v>
+      </c>
+      <c r="I38" s="14">
         <v>0.307</v>
       </c>
-      <c r="E38" s="1">
+      <c r="J38" s="1">
         <v>3</v>
       </c>
-      <c r="F38" s="4">
+      <c r="K38" s="4">
         <f>Tabella5[[#This Row],[Unit price]]*Tabella5[[#This Row],[Min pcs sold or needed]]</f>
         <v>0.92100000000000004</v>
       </c>
-      <c r="G38" s="4">
+      <c r="L38" s="4">
         <f t="shared" si="0"/>
         <v>1.1236200000000001</v>
       </c>
-      <c r="H38" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I38" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J38" s="10" t="s">
+      <c r="M38" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N38" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O38" s="10" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" ht="15">
       <c r="A39" s="9"/>
       <c r="B39" s="9"/>
       <c r="C39" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="D39" s="14">
+      <c r="D39" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="E39" s="12">
+        <v>5</v>
+      </c>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12">
+        <v>1.02</v>
+      </c>
+      <c r="H39" s="29">
+        <f>Tabella5[[#This Row],[Column2]]*Tabella5[[#This Row],[Mouser Price]]</f>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="I39" s="14">
         <v>0.94</v>
       </c>
-      <c r="E39" s="1">
-        <v>5</v>
-      </c>
-      <c r="F39" s="4">
+      <c r="J39" s="1">
+        <v>5</v>
+      </c>
+      <c r="K39" s="4">
         <f>Tabella5[[#This Row],[Unit price]]*Tabella5[[#This Row],[Min pcs sold or needed]]</f>
         <v>4.6999999999999993</v>
       </c>
-      <c r="G39" s="4">
+      <c r="L39" s="4">
         <f t="shared" si="0"/>
         <v>5.7339999999999991</v>
       </c>
-      <c r="H39" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I39" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J39" s="10" t="s">
+      <c r="M39" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N39" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O39" s="10" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" ht="15">
       <c r="A40" s="9"/>
       <c r="B40" s="9"/>
       <c r="C40" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="D40" s="14">
+      <c r="D40" s="25" t="s">
+        <v>340</v>
+      </c>
+      <c r="E40" s="12">
+        <v>5</v>
+      </c>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12">
+        <v>1.84</v>
+      </c>
+      <c r="H40" s="29">
+        <f>Tabella5[[#This Row],[Column2]]*Tabella5[[#This Row],[Mouser Price]]</f>
+        <v>9.2000000000000011</v>
+      </c>
+      <c r="I40" s="14">
         <v>0.93286000000000002</v>
       </c>
-      <c r="E40" s="1">
-        <v>5</v>
-      </c>
-      <c r="F40" s="4">
+      <c r="J40" s="1">
+        <v>5</v>
+      </c>
+      <c r="K40" s="4">
         <f>Tabella5[[#This Row],[Unit price]]*Tabella5[[#This Row],[Min pcs sold or needed]]</f>
         <v>4.6642999999999999</v>
       </c>
-      <c r="G40" s="4">
-        <f t="shared" ref="G40:G71" si="1">F40*1.22</f>
+      <c r="L40" s="4">
+        <f t="shared" ref="L40:L71" si="1">K40*1.22</f>
         <v>5.6904459999999997</v>
       </c>
-      <c r="H40" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I40" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J40" s="10" t="s">
+      <c r="M40" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N40" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O40" s="10" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" ht="15">
       <c r="A41" s="9"/>
       <c r="B41" s="9" t="s">
         <v>255</v>
@@ -2617,121 +3288,177 @@
       <c r="C41" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="D41" s="14">
+      <c r="D41" s="25" t="s">
+        <v>341</v>
+      </c>
+      <c r="E41" s="12">
+        <v>1</v>
+      </c>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="H41" s="29">
+        <f>Tabella5[[#This Row],[Column2]]*Tabella5[[#This Row],[Mouser Price]]</f>
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="I41" s="14">
         <v>0.53</v>
       </c>
-      <c r="E41" s="1">
+      <c r="J41" s="1">
         <v>1</v>
       </c>
-      <c r="F41" s="4">
+      <c r="K41" s="4">
         <f>Tabella5[[#This Row],[Unit price]]*Tabella5[[#This Row],[Min pcs sold or needed]]</f>
         <v>0.53</v>
       </c>
-      <c r="G41" s="4">
+      <c r="L41" s="4">
         <f t="shared" si="1"/>
         <v>0.64660000000000006</v>
       </c>
-      <c r="H41" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I41" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J41" s="10" t="s">
+      <c r="M41" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N41" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O41" s="10" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" ht="15">
       <c r="A42" s="9"/>
       <c r="B42" s="9"/>
       <c r="C42" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="D42" s="14">
+      <c r="D42" s="25" t="s">
+        <v>343</v>
+      </c>
+      <c r="E42" s="12">
+        <v>10</v>
+      </c>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12">
+        <v>0.19</v>
+      </c>
+      <c r="H42" s="29">
+        <f>Tabella5[[#This Row],[Column2]]*Tabella5[[#This Row],[Mouser Price]]</f>
+        <v>1.9</v>
+      </c>
+      <c r="I42" s="14">
         <v>0.68400000000000005</v>
       </c>
-      <c r="E42" s="1">
+      <c r="J42" s="1">
         <v>10</v>
       </c>
-      <c r="F42" s="4">
+      <c r="K42" s="4">
         <f>Tabella5[[#This Row],[Unit price]]*Tabella5[[#This Row],[Min pcs sold or needed]]</f>
         <v>6.8400000000000007</v>
       </c>
-      <c r="G42" s="4">
+      <c r="L42" s="4">
         <f t="shared" si="1"/>
         <v>8.3448000000000011</v>
       </c>
-      <c r="H42" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I42" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J42" s="10" t="s">
+      <c r="M42" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N42" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O42" s="10" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="43" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" s="10" customFormat="1" ht="15">
       <c r="A43" s="9"/>
       <c r="B43" s="9"/>
       <c r="C43" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="D43" s="14">
+      <c r="D43" s="25" t="s">
+        <v>344</v>
+      </c>
+      <c r="E43" s="12">
+        <v>10</v>
+      </c>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="H43" s="29">
+        <f>Tabella5[[#This Row],[Column2]]*Tabella5[[#This Row],[Mouser Price]]</f>
+        <v>2.66</v>
+      </c>
+      <c r="I43" s="14">
         <v>4.99E-2</v>
       </c>
-      <c r="E43" s="1">
+      <c r="J43" s="1">
         <v>10</v>
       </c>
-      <c r="F43" s="4">
+      <c r="K43" s="4">
         <f>Tabella5[[#This Row],[Unit price]]*Tabella5[[#This Row],[Min pcs sold or needed]]</f>
         <v>0.499</v>
       </c>
-      <c r="G43" s="4">
+      <c r="L43" s="4">
         <f t="shared" si="1"/>
         <v>0.60877999999999999</v>
       </c>
-      <c r="H43" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I43" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J43" s="10" t="s">
+      <c r="M43" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N43" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O43" s="10" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" ht="15">
       <c r="A44" s="9"/>
       <c r="B44" s="9"/>
       <c r="C44" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="D44" s="14">
+      <c r="D44" s="25" t="s">
+        <v>345</v>
+      </c>
+      <c r="E44" s="12">
+        <v>2</v>
+      </c>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12">
+        <v>0.67</v>
+      </c>
+      <c r="H44" s="29">
+        <f>Tabella5[[#This Row],[Column2]]*Tabella5[[#This Row],[Mouser Price]]</f>
+        <v>1.34</v>
+      </c>
+      <c r="I44" s="14">
         <v>0.24</v>
       </c>
-      <c r="E44" s="1">
+      <c r="J44" s="1">
         <v>2</v>
       </c>
-      <c r="F44" s="4">
+      <c r="K44" s="4">
         <f>Tabella5[[#This Row],[Unit price]]*Tabella5[[#This Row],[Min pcs sold or needed]]</f>
         <v>0.48</v>
       </c>
-      <c r="G44" s="4">
+      <c r="L44" s="4">
         <f t="shared" si="1"/>
         <v>0.58560000000000001</v>
       </c>
-      <c r="H44" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I44" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J44" s="10" t="s">
+      <c r="M44" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N44" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O44" s="10" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="45" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" s="10" customFormat="1" ht="15">
       <c r="A45" s="9"/>
       <c r="B45" s="9" t="s">
         <v>256</v>
@@ -2739,31 +3466,45 @@
       <c r="C45" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="D45" s="14">
+      <c r="D45" s="25" t="s">
+        <v>346</v>
+      </c>
+      <c r="E45" s="12">
+        <v>10</v>
+      </c>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="H45" s="29">
+        <f>Tabella5[[#This Row],[Column2]]*Tabella5[[#This Row],[Mouser Price]]</f>
+        <v>0.34</v>
+      </c>
+      <c r="I45" s="14">
         <v>4.3400000000000001E-3</v>
       </c>
-      <c r="E45" s="1">
+      <c r="J45" s="1">
         <v>100</v>
       </c>
-      <c r="F45" s="4">
+      <c r="K45" s="4">
         <f>Tabella5[[#This Row],[Unit price]]*Tabella5[[#This Row],[Min pcs sold or needed]]</f>
         <v>0.434</v>
       </c>
-      <c r="G45" s="4">
+      <c r="L45" s="4">
         <f t="shared" si="1"/>
         <v>0.52947999999999995</v>
       </c>
-      <c r="H45" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I45" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J45" s="10" t="s">
+      <c r="M45" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N45" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O45" s="10" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" ht="15">
       <c r="A46" s="9"/>
       <c r="B46" s="9" t="s">
         <v>257</v>
@@ -2771,31 +3512,45 @@
       <c r="C46" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="D46" s="14">
+      <c r="D46" s="32" t="s">
+        <v>347</v>
+      </c>
+      <c r="E46" s="12">
+        <v>1</v>
+      </c>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12">
+        <v>2.12</v>
+      </c>
+      <c r="H46" s="29">
+        <f>Tabella5[[#This Row],[Column2]]*Tabella5[[#This Row],[Mouser Price]]</f>
+        <v>2.12</v>
+      </c>
+      <c r="I46" s="14">
         <v>0.32832</v>
       </c>
-      <c r="E46" s="1">
-        <v>5</v>
-      </c>
-      <c r="F46" s="4">
+      <c r="J46" s="1">
+        <v>5</v>
+      </c>
+      <c r="K46" s="4">
         <f>Tabella5[[#This Row],[Unit price]]*Tabella5[[#This Row],[Min pcs sold or needed]]</f>
         <v>1.6415999999999999</v>
       </c>
-      <c r="G46" s="4">
+      <c r="L46" s="4">
         <f t="shared" si="1"/>
         <v>2.0027520000000001</v>
       </c>
-      <c r="H46" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I46" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J46" s="10" t="s">
+      <c r="M46" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N46" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O46" s="10" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" ht="15">
       <c r="A47" s="9"/>
       <c r="B47" s="9" t="s">
         <v>258</v>
@@ -2803,31 +3558,45 @@
       <c r="C47" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="D47" s="14">
+      <c r="D47" s="32" t="s">
+        <v>348</v>
+      </c>
+      <c r="E47" s="17">
+        <v>1</v>
+      </c>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17">
+        <v>2.25</v>
+      </c>
+      <c r="H47" s="30">
+        <f>Tabella5[[#This Row],[Column2]]*Tabella5[[#This Row],[Mouser Price]]</f>
+        <v>2.25</v>
+      </c>
+      <c r="I47" s="14">
         <v>0.26619999999999999</v>
       </c>
-      <c r="E47" s="1">
-        <v>5</v>
-      </c>
-      <c r="F47" s="4">
+      <c r="J47" s="1">
+        <v>5</v>
+      </c>
+      <c r="K47" s="4">
         <f>Tabella5[[#This Row],[Unit price]]*Tabella5[[#This Row],[Min pcs sold or needed]]</f>
         <v>1.331</v>
       </c>
-      <c r="G47" s="4">
+      <c r="L47" s="4">
         <f t="shared" si="1"/>
         <v>1.6238199999999998</v>
       </c>
-      <c r="H47" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I47" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J47" s="10" t="s">
+      <c r="M47" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N47" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O47" s="10" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" ht="15">
       <c r="A48" s="9"/>
       <c r="B48" s="9" t="s">
         <v>259</v>
@@ -2835,31 +3604,45 @@
       <c r="C48" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="D48" s="14">
+      <c r="D48" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="E48" s="12">
+        <v>1</v>
+      </c>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="H48" s="29">
+        <f>Tabella5[[#This Row],[Column2]]*Tabella5[[#This Row],[Mouser Price]]</f>
+        <v>0.6</v>
+      </c>
+      <c r="I48" s="14">
         <v>0.1308</v>
       </c>
-      <c r="E48" s="1">
-        <v>5</v>
-      </c>
-      <c r="F48" s="4">
+      <c r="J48" s="1">
+        <v>5</v>
+      </c>
+      <c r="K48" s="4">
         <f>Tabella5[[#This Row],[Unit price]]*Tabella5[[#This Row],[Min pcs sold or needed]]</f>
         <v>0.65400000000000003</v>
       </c>
-      <c r="G48" s="4">
+      <c r="L48" s="4">
         <f t="shared" si="1"/>
         <v>0.79788000000000003</v>
       </c>
-      <c r="H48" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I48" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J48" s="10" t="s">
+      <c r="M48" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N48" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O48" s="10" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15">
       <c r="A49" s="9"/>
       <c r="B49" s="9" t="s">
         <v>262</v>
@@ -2867,61 +3650,83 @@
       <c r="C49" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="D49" s="14">
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="29">
+        <f>Tabella5[[#This Row],[Column2]]*Tabella5[[#This Row],[Mouser Price]]</f>
+        <v>0</v>
+      </c>
+      <c r="I49" s="14">
         <v>21.12</v>
       </c>
-      <c r="E49" s="1">
+      <c r="J49" s="1">
         <v>1</v>
       </c>
-      <c r="F49" s="4">
+      <c r="K49" s="4">
         <f>Tabella5[[#This Row],[Unit price]]*Tabella5[[#This Row],[Min pcs sold or needed]]</f>
         <v>21.12</v>
       </c>
-      <c r="G49" s="4">
+      <c r="L49" s="4">
         <f t="shared" si="1"/>
         <v>25.766400000000001</v>
       </c>
-      <c r="H49" s="18" t="s">
+      <c r="M49" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="I49" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J49" s="10" t="s">
+      <c r="N49" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O49" s="10" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" ht="15">
       <c r="A50" s="9"/>
       <c r="B50" s="9"/>
       <c r="C50" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="D50" s="14">
+      <c r="D50" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="E50" s="12">
+        <v>1</v>
+      </c>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12">
+        <v>0.47</v>
+      </c>
+      <c r="H50" s="29">
+        <f>Tabella5[[#This Row],[Column2]]*Tabella5[[#This Row],[Mouser Price]]</f>
+        <v>0.47</v>
+      </c>
+      <c r="I50" s="14">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="E50" s="1">
+      <c r="J50" s="1">
         <v>10</v>
       </c>
-      <c r="F50" s="4">
+      <c r="K50" s="4">
         <f>Tabella5[[#This Row],[Unit price]]*Tabella5[[#This Row],[Min pcs sold or needed]]</f>
         <v>0.68</v>
       </c>
-      <c r="G50" s="4">
+      <c r="L50" s="4">
         <f t="shared" si="1"/>
         <v>0.8296</v>
       </c>
-      <c r="H50" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I50" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J50" s="10" t="s">
+      <c r="M50" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N50" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O50" s="10" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" ht="15">
       <c r="A51" s="9"/>
       <c r="B51" s="9" t="s">
         <v>263</v>
@@ -2929,31 +3734,45 @@
       <c r="C51" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D51" s="14">
+      <c r="D51" s="25" t="s">
+        <v>351</v>
+      </c>
+      <c r="E51" s="12">
+        <v>2</v>
+      </c>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12">
+        <v>0.22</v>
+      </c>
+      <c r="H51" s="29">
+        <f>Tabella5[[#This Row],[Column2]]*Tabella5[[#This Row],[Mouser Price]]</f>
+        <v>0.44</v>
+      </c>
+      <c r="I51" s="14">
         <v>2.0500000000000001E-2</v>
       </c>
-      <c r="E51" s="1">
+      <c r="J51" s="1">
         <v>25</v>
       </c>
-      <c r="F51" s="4">
+      <c r="K51" s="4">
         <f>Tabella5[[#This Row],[Unit price]]*Tabella5[[#This Row],[Min pcs sold or needed]]</f>
         <v>0.51250000000000007</v>
       </c>
-      <c r="G51" s="4">
+      <c r="L51" s="4">
         <f t="shared" si="1"/>
         <v>0.62525000000000008</v>
       </c>
-      <c r="H51" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I51" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J51" s="10" t="s">
+      <c r="M51" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N51" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O51" s="10" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" ht="15">
       <c r="A52" s="9"/>
       <c r="B52" s="9" t="s">
         <v>264</v>
@@ -2961,31 +3780,45 @@
       <c r="C52" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D52" s="14">
+      <c r="D52" s="25" t="s">
+        <v>352</v>
+      </c>
+      <c r="E52" s="12">
+        <v>3</v>
+      </c>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12">
+        <v>0.21</v>
+      </c>
+      <c r="H52" s="29">
+        <f>Tabella5[[#This Row],[Column2]]*Tabella5[[#This Row],[Mouser Price]]</f>
+        <v>0.63</v>
+      </c>
+      <c r="I52" s="14">
         <v>1.9099999999999999E-2</v>
       </c>
-      <c r="E52" s="1">
+      <c r="J52" s="1">
         <v>25</v>
       </c>
-      <c r="F52" s="4">
+      <c r="K52" s="4">
         <f>Tabella5[[#This Row],[Unit price]]*Tabella5[[#This Row],[Min pcs sold or needed]]</f>
         <v>0.47749999999999998</v>
       </c>
-      <c r="G52" s="4">
+      <c r="L52" s="4">
         <f t="shared" si="1"/>
         <v>0.58255000000000001</v>
       </c>
-      <c r="H52" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I52" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J52" s="10" t="s">
+      <c r="M52" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N52" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O52" s="10" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" ht="15">
       <c r="A53" s="9"/>
       <c r="B53" s="9" t="s">
         <v>265</v>
@@ -2993,31 +3826,45 @@
       <c r="C53" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D53" s="14">
+      <c r="D53" s="32" t="s">
+        <v>353</v>
+      </c>
+      <c r="E53" s="12">
+        <v>2</v>
+      </c>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H53" s="29">
+        <f>Tabella5[[#This Row],[Column2]]*Tabella5[[#This Row],[Mouser Price]]</f>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I53" s="14">
         <v>1.8599999999999998E-2</v>
       </c>
-      <c r="E53" s="1">
+      <c r="J53" s="1">
         <v>25</v>
       </c>
-      <c r="F53" s="4">
+      <c r="K53" s="4">
         <f>Tabella5[[#This Row],[Unit price]]*Tabella5[[#This Row],[Min pcs sold or needed]]</f>
         <v>0.46499999999999997</v>
       </c>
-      <c r="G53" s="4">
+      <c r="L53" s="4">
         <f t="shared" si="1"/>
         <v>0.56729999999999992</v>
       </c>
-      <c r="H53" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I53" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J53" s="10" t="s">
+      <c r="M53" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N53" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O53" s="10" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" ht="15">
       <c r="A54" s="9"/>
       <c r="B54" s="9" t="s">
         <v>266</v>
@@ -3025,31 +3872,47 @@
       <c r="C54" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D54" s="14">
+      <c r="D54" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="E54" s="12">
+        <v>1</v>
+      </c>
+      <c r="F54" s="12">
+        <v>0</v>
+      </c>
+      <c r="G54" s="12">
+        <v>0.39</v>
+      </c>
+      <c r="H54" s="29">
+        <f>Tabella5[[#This Row],[Column2]]*Tabella5[[#This Row],[Mouser Price]]</f>
+        <v>0.39</v>
+      </c>
+      <c r="I54" s="14">
         <v>9.7600000000000006E-2</v>
       </c>
-      <c r="E54" s="1">
-        <v>5</v>
-      </c>
-      <c r="F54" s="4">
+      <c r="J54" s="1">
+        <v>5</v>
+      </c>
+      <c r="K54" s="4">
         <f>Tabella5[[#This Row],[Unit price]]*Tabella5[[#This Row],[Min pcs sold or needed]]</f>
         <v>0.48800000000000004</v>
       </c>
-      <c r="G54" s="4">
+      <c r="L54" s="4">
         <f t="shared" si="1"/>
         <v>0.59536</v>
       </c>
-      <c r="H54" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I54" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J54" s="10" t="s">
+      <c r="M54" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N54" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O54" s="10" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" ht="15">
       <c r="A55" s="9"/>
       <c r="B55" s="9" t="s">
         <v>267</v>
@@ -3057,42 +3920,66 @@
       <c r="C55" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D55" s="14">
+      <c r="D55" s="32" t="s">
+        <v>355</v>
+      </c>
+      <c r="E55" s="12">
+        <v>7</v>
+      </c>
+      <c r="F55" s="12">
+        <v>10</v>
+      </c>
+      <c r="G55" s="12">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="H55" s="29">
+        <f>Tabella5[[#This Row],[Column2]]*Tabella5[[#This Row],[Mouser Price]]</f>
+        <v>2.9889999999999999</v>
+      </c>
+      <c r="I55" s="14">
         <v>8.09E-2</v>
       </c>
-      <c r="E55" s="1">
+      <c r="J55" s="1">
         <v>10</v>
       </c>
-      <c r="F55" s="4">
+      <c r="K55" s="4">
         <f>Tabella5[[#This Row],[Unit price]]*Tabella5[[#This Row],[Min pcs sold or needed]]</f>
         <v>0.80899999999999994</v>
       </c>
-      <c r="G55" s="4">
+      <c r="L55" s="4">
         <f t="shared" si="1"/>
         <v>0.98697999999999986</v>
       </c>
-      <c r="H55" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I55" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J55" s="10" t="s">
+      <c r="M55" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N55" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O55" s="10" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15">
       <c r="A56" s="9"/>
       <c r="B56" s="9"/>
       <c r="C56" s="12"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="11"/>
-      <c r="I56" s="9"/>
-      <c r="J56" s="10"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="29">
+        <f>Tabella5[[#This Row],[Column2]]*Tabella5[[#This Row],[Mouser Price]]</f>
+        <v>0</v>
+      </c>
+      <c r="J56" s="1"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
+      <c r="M56" s="11"/>
+      <c r="N56" s="9"/>
+      <c r="O56" s="10"/>
+    </row>
+    <row r="57" spans="1:15" ht="15">
       <c r="A57" s="9"/>
       <c r="B57" s="9" t="s">
         <v>268</v>
@@ -3100,31 +3987,47 @@
       <c r="C57" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D57" s="14">
+      <c r="D57" s="25" t="s">
+        <v>356</v>
+      </c>
+      <c r="E57" s="12">
+        <v>1</v>
+      </c>
+      <c r="F57" s="12">
+        <v>10</v>
+      </c>
+      <c r="G57" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H57" s="29">
+        <f>Tabella5[[#This Row],[Column2]]*Tabella5[[#This Row],[Mouser Price]]</f>
+        <v>0.1</v>
+      </c>
+      <c r="I57" s="14">
         <v>7.0499999999999998E-3</v>
       </c>
-      <c r="E57" s="1">
+      <c r="J57" s="1">
         <v>100</v>
       </c>
-      <c r="F57" s="4">
+      <c r="K57" s="4">
         <f>Tabella5[[#This Row],[Unit price]]*Tabella5[[#This Row],[Min pcs sold or needed]]</f>
         <v>0.70499999999999996</v>
       </c>
-      <c r="G57" s="4">
+      <c r="L57" s="4">
         <f t="shared" si="1"/>
         <v>0.86009999999999998</v>
       </c>
-      <c r="H57" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I57" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J57" s="10" t="s">
+      <c r="M57" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N57" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O57" s="10" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" ht="15">
       <c r="A58" s="9"/>
       <c r="B58" s="9" t="s">
         <v>269</v>
@@ -3132,31 +4035,47 @@
       <c r="C58" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D58" s="14">
+      <c r="D58" s="25" t="s">
+        <v>357</v>
+      </c>
+      <c r="E58" s="12">
+        <v>6</v>
+      </c>
+      <c r="F58" s="12">
+        <v>10</v>
+      </c>
+      <c r="G58" s="12">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="H58" s="29">
+        <f>Tabella5[[#This Row],[Column2]]*Tabella5[[#This Row],[Mouser Price]]</f>
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="I58" s="14">
         <v>6.11E-3</v>
       </c>
-      <c r="E58" s="1">
+      <c r="J58" s="1">
         <v>100</v>
       </c>
-      <c r="F58" s="4">
+      <c r="K58" s="4">
         <f>Tabella5[[#This Row],[Unit price]]*Tabella5[[#This Row],[Min pcs sold or needed]]</f>
         <v>0.61099999999999999</v>
       </c>
-      <c r="G58" s="4">
+      <c r="L58" s="4">
         <f t="shared" si="1"/>
         <v>0.74541999999999997</v>
       </c>
-      <c r="H58" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I58" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J58" s="10" t="s">
+      <c r="M58" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N58" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O58" s="10" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15">
       <c r="A59" s="9"/>
       <c r="B59" s="9" t="s">
         <v>270</v>
@@ -3164,31 +4083,39 @@
       <c r="C59" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D59" s="14">
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="29">
+        <f>Tabella5[[#This Row],[Column2]]*Tabella5[[#This Row],[Mouser Price]]</f>
+        <v>0</v>
+      </c>
+      <c r="I59" s="14">
         <v>5.8900000000000003E-3</v>
       </c>
-      <c r="E59" s="1">
+      <c r="J59" s="1">
         <v>100</v>
       </c>
-      <c r="F59" s="4">
+      <c r="K59" s="4">
         <f>Tabella5[[#This Row],[Unit price]]*Tabella5[[#This Row],[Min pcs sold or needed]]</f>
         <v>0.58900000000000008</v>
       </c>
-      <c r="G59" s="4">
+      <c r="L59" s="4">
         <f t="shared" si="1"/>
         <v>0.71858000000000011</v>
       </c>
-      <c r="H59" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I59" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J59" s="10" t="s">
+      <c r="M59" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N59" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O59" s="10" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15">
       <c r="A60" s="9"/>
       <c r="B60" s="9" t="s">
         <v>271</v>
@@ -3196,31 +4123,39 @@
       <c r="C60" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D60" s="14">
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="29">
+        <f>Tabella5[[#This Row],[Column2]]*Tabella5[[#This Row],[Mouser Price]]</f>
+        <v>0</v>
+      </c>
+      <c r="I60" s="14">
         <v>0.11289</v>
       </c>
-      <c r="E60" s="1">
+      <c r="J60" s="1">
         <v>13</v>
       </c>
-      <c r="F60" s="4">
+      <c r="K60" s="4">
         <f>Tabella5[[#This Row],[Unit price]]*Tabella5[[#This Row],[Min pcs sold or needed]]</f>
         <v>1.46757</v>
       </c>
-      <c r="G60" s="4">
+      <c r="L60" s="4">
         <f t="shared" si="1"/>
         <v>1.7904354</v>
       </c>
-      <c r="H60" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I60" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J60" s="10" t="s">
+      <c r="M60" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N60" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O60" s="10" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15">
       <c r="A61" s="9"/>
       <c r="B61" s="9" t="s">
         <v>272</v>
@@ -3228,31 +4163,39 @@
       <c r="C61" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D61" s="14">
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="29">
+        <f>Tabella5[[#This Row],[Column2]]*Tabella5[[#This Row],[Mouser Price]]</f>
+        <v>0</v>
+      </c>
+      <c r="I61" s="14">
         <v>6.11E-3</v>
       </c>
-      <c r="E61" s="1">
+      <c r="J61" s="1">
         <v>100</v>
       </c>
-      <c r="F61" s="4">
+      <c r="K61" s="4">
         <f>Tabella5[[#This Row],[Unit price]]*Tabella5[[#This Row],[Min pcs sold or needed]]</f>
         <v>0.61099999999999999</v>
       </c>
-      <c r="G61" s="4">
+      <c r="L61" s="4">
         <f t="shared" si="1"/>
         <v>0.74541999999999997</v>
       </c>
-      <c r="H61" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I61" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J61" s="10" t="s">
+      <c r="M61" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N61" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O61" s="10" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15">
       <c r="A62" s="9"/>
       <c r="B62" s="9" t="s">
         <v>273</v>
@@ -3260,31 +4203,39 @@
       <c r="C62" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D62" s="14">
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="29">
+        <f>Tabella5[[#This Row],[Column2]]*Tabella5[[#This Row],[Mouser Price]]</f>
+        <v>0</v>
+      </c>
+      <c r="I62" s="14">
         <v>6.11E-3</v>
       </c>
-      <c r="E62" s="1">
+      <c r="J62" s="1">
         <v>100</v>
       </c>
-      <c r="F62" s="4">
+      <c r="K62" s="4">
         <f>Tabella5[[#This Row],[Unit price]]*Tabella5[[#This Row],[Min pcs sold or needed]]</f>
         <v>0.61099999999999999</v>
       </c>
-      <c r="G62" s="4">
+      <c r="L62" s="4">
         <f t="shared" si="1"/>
         <v>0.74541999999999997</v>
       </c>
-      <c r="H62" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I62" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J62" s="10" t="s">
+      <c r="M62" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N62" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O62" s="10" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15">
       <c r="A63" s="9"/>
       <c r="B63" s="9" t="s">
         <v>274</v>
@@ -3292,31 +4243,39 @@
       <c r="C63" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D63" s="14">
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="29">
+        <f>Tabella5[[#This Row],[Column2]]*Tabella5[[#This Row],[Mouser Price]]</f>
+        <v>0</v>
+      </c>
+      <c r="I63" s="14">
         <v>6.11E-3</v>
       </c>
-      <c r="E63" s="1">
+      <c r="J63" s="1">
         <v>100</v>
       </c>
-      <c r="F63" s="4">
+      <c r="K63" s="4">
         <f>Tabella5[[#This Row],[Unit price]]*Tabella5[[#This Row],[Min pcs sold or needed]]</f>
         <v>0.61099999999999999</v>
       </c>
-      <c r="G63" s="4">
+      <c r="L63" s="4">
         <f t="shared" si="1"/>
         <v>0.74541999999999997</v>
       </c>
-      <c r="H63" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I63" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J63" s="10" t="s">
+      <c r="M63" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N63" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O63" s="10" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15">
       <c r="A64" s="9"/>
       <c r="B64" s="9" t="s">
         <v>275</v>
@@ -3324,31 +4283,39 @@
       <c r="C64" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D64" s="14">
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="29">
+        <f>Tabella5[[#This Row],[Column2]]*Tabella5[[#This Row],[Mouser Price]]</f>
+        <v>0</v>
+      </c>
+      <c r="I64" s="14">
         <v>6.11E-3</v>
       </c>
-      <c r="E64" s="1">
+      <c r="J64" s="1">
         <v>100</v>
       </c>
-      <c r="F64" s="4">
+      <c r="K64" s="4">
         <f>Tabella5[[#This Row],[Unit price]]*Tabella5[[#This Row],[Min pcs sold or needed]]</f>
         <v>0.61099999999999999</v>
       </c>
-      <c r="G64" s="4">
+      <c r="L64" s="4">
         <f t="shared" si="1"/>
         <v>0.74541999999999997</v>
       </c>
-      <c r="H64" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I64" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J64" s="10" t="s">
+      <c r="M64" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N64" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O64" s="10" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15">
       <c r="A65" s="9"/>
       <c r="B65" s="9" t="s">
         <v>276</v>
@@ -3356,31 +4323,39 @@
       <c r="C65" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D65" s="14">
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="29">
+        <f>Tabella5[[#This Row],[Column2]]*Tabella5[[#This Row],[Mouser Price]]</f>
+        <v>0</v>
+      </c>
+      <c r="I65" s="14">
         <v>6.11E-3</v>
       </c>
-      <c r="E65" s="1">
+      <c r="J65" s="1">
         <v>100</v>
       </c>
-      <c r="F65" s="4">
+      <c r="K65" s="4">
         <f>Tabella5[[#This Row],[Unit price]]*Tabella5[[#This Row],[Min pcs sold or needed]]</f>
         <v>0.61099999999999999</v>
       </c>
-      <c r="G65" s="4">
+      <c r="L65" s="4">
         <f t="shared" si="1"/>
         <v>0.74541999999999997</v>
       </c>
-      <c r="H65" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I65" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J65" s="10" t="s">
+      <c r="M65" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N65" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O65" s="10" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15">
       <c r="A66" s="9"/>
       <c r="B66" s="9" t="s">
         <v>277</v>
@@ -3388,31 +4363,39 @@
       <c r="C66" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D66" s="14">
+      <c r="D66" s="12"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="29">
+        <f>Tabella5[[#This Row],[Column2]]*Tabella5[[#This Row],[Mouser Price]]</f>
+        <v>0</v>
+      </c>
+      <c r="I66" s="14">
         <v>6.11E-3</v>
       </c>
-      <c r="E66" s="1">
+      <c r="J66" s="1">
         <v>100</v>
       </c>
-      <c r="F66" s="4">
+      <c r="K66" s="4">
         <f>Tabella5[[#This Row],[Unit price]]*Tabella5[[#This Row],[Min pcs sold or needed]]</f>
         <v>0.61099999999999999</v>
       </c>
-      <c r="G66" s="4">
+      <c r="L66" s="4">
         <f t="shared" si="1"/>
         <v>0.74541999999999997</v>
       </c>
-      <c r="H66" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I66" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J66" s="10" t="s">
+      <c r="M66" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N66" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O66" s="10" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15">
       <c r="A67" s="9"/>
       <c r="B67" s="9" t="s">
         <v>278</v>
@@ -3420,31 +4403,39 @@
       <c r="C67" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D67" s="14">
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="29">
+        <f>Tabella5[[#This Row],[Column2]]*Tabella5[[#This Row],[Mouser Price]]</f>
+        <v>0</v>
+      </c>
+      <c r="I67" s="14">
         <v>0.11289</v>
       </c>
-      <c r="E67" s="1">
+      <c r="J67" s="1">
         <v>10</v>
       </c>
-      <c r="F67" s="4">
+      <c r="K67" s="4">
         <f>Tabella5[[#This Row],[Unit price]]*Tabella5[[#This Row],[Min pcs sold or needed]]</f>
         <v>1.1289</v>
       </c>
-      <c r="G67" s="4">
+      <c r="L67" s="4">
         <f t="shared" si="1"/>
         <v>1.3772580000000001</v>
       </c>
-      <c r="H67" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I67" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J67" s="10" t="s">
+      <c r="M67" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N67" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O67" s="10" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15">
       <c r="A68" s="9"/>
       <c r="B68" s="9" t="s">
         <v>279</v>
@@ -3452,31 +4443,39 @@
       <c r="C68" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D68" s="14">
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="29">
+        <f>Tabella5[[#This Row],[Column2]]*Tabella5[[#This Row],[Mouser Price]]</f>
+        <v>0</v>
+      </c>
+      <c r="I68" s="14">
         <v>6.11E-3</v>
       </c>
-      <c r="E68" s="1">
+      <c r="J68" s="1">
         <v>100</v>
       </c>
-      <c r="F68" s="4">
+      <c r="K68" s="4">
         <f>Tabella5[[#This Row],[Unit price]]*Tabella5[[#This Row],[Min pcs sold or needed]]</f>
         <v>0.61099999999999999</v>
       </c>
-      <c r="G68" s="4">
+      <c r="L68" s="4">
         <f t="shared" si="1"/>
         <v>0.74541999999999997</v>
       </c>
-      <c r="H68" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I68" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J68" s="10" t="s">
+      <c r="M68" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N68" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O68" s="10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15">
       <c r="A69" s="9"/>
       <c r="B69" s="9" t="s">
         <v>280</v>
@@ -3484,31 +4483,39 @@
       <c r="C69" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D69" s="14">
+      <c r="D69" s="12"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="12"/>
+      <c r="H69" s="29">
+        <f>Tabella5[[#This Row],[Column2]]*Tabella5[[#This Row],[Mouser Price]]</f>
+        <v>0</v>
+      </c>
+      <c r="I69" s="14">
         <v>6.11E-3</v>
       </c>
-      <c r="E69" s="1">
+      <c r="J69" s="1">
         <v>100</v>
       </c>
-      <c r="F69" s="4">
+      <c r="K69" s="4">
         <f>Tabella5[[#This Row],[Unit price]]*Tabella5[[#This Row],[Min pcs sold or needed]]</f>
         <v>0.61099999999999999</v>
       </c>
-      <c r="G69" s="4">
+      <c r="L69" s="4">
         <f t="shared" si="1"/>
         <v>0.74541999999999997</v>
       </c>
-      <c r="H69" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I69" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J69" s="10" t="s">
+      <c r="M69" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N69" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O69" s="10" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="70" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" s="10" customFormat="1">
       <c r="A70" s="9"/>
       <c r="B70" s="9" t="s">
         <v>281</v>
@@ -3516,31 +4523,39 @@
       <c r="C70" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D70" s="14">
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="29">
+        <f>Tabella5[[#This Row],[Column2]]*Tabella5[[#This Row],[Mouser Price]]</f>
+        <v>0</v>
+      </c>
+      <c r="I70" s="14">
         <v>0.11759</v>
       </c>
-      <c r="E70" s="1">
+      <c r="J70" s="1">
         <v>10</v>
       </c>
-      <c r="F70" s="4">
+      <c r="K70" s="4">
         <f>Tabella5[[#This Row],[Unit price]]*Tabella5[[#This Row],[Min pcs sold or needed]]</f>
         <v>1.1758999999999999</v>
       </c>
-      <c r="G70" s="4">
+      <c r="L70" s="4">
         <f t="shared" si="1"/>
         <v>1.4345979999999998</v>
       </c>
-      <c r="H70" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I70" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J70" s="10" t="s">
+      <c r="M70" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N70" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O70" s="10" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="71" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" s="10" customFormat="1">
       <c r="A71" s="9"/>
       <c r="B71" s="9" t="s">
         <v>282</v>
@@ -3548,31 +4563,39 @@
       <c r="C71" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D71" s="14">
+      <c r="D71" s="12"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="12"/>
+      <c r="H71" s="29">
+        <f>Tabella5[[#This Row],[Column2]]*Tabella5[[#This Row],[Mouser Price]]</f>
+        <v>0</v>
+      </c>
+      <c r="I71" s="14">
         <v>0.11289</v>
       </c>
-      <c r="E71" s="1">
+      <c r="J71" s="1">
         <v>10</v>
       </c>
-      <c r="F71" s="4">
+      <c r="K71" s="4">
         <f>Tabella5[[#This Row],[Unit price]]*Tabella5[[#This Row],[Min pcs sold or needed]]</f>
         <v>1.1289</v>
       </c>
-      <c r="G71" s="4">
+      <c r="L71" s="4">
         <f t="shared" si="1"/>
         <v>1.3772580000000001</v>
       </c>
-      <c r="H71" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I71" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J71" s="10" t="s">
+      <c r="M71" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N71" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O71" s="10" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="72" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" s="10" customFormat="1">
       <c r="A72" s="9"/>
       <c r="B72" s="9" t="s">
         <v>283</v>
@@ -3580,31 +4603,39 @@
       <c r="C72" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D72" s="14">
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="29">
+        <f>Tabella5[[#This Row],[Column2]]*Tabella5[[#This Row],[Mouser Price]]</f>
+        <v>0</v>
+      </c>
+      <c r="I72" s="14">
         <v>6.11E-3</v>
       </c>
-      <c r="E72" s="1">
+      <c r="J72" s="1">
         <v>100</v>
       </c>
-      <c r="F72" s="4">
+      <c r="K72" s="4">
         <f>Tabella5[[#This Row],[Unit price]]*Tabella5[[#This Row],[Min pcs sold or needed]]</f>
         <v>0.61099999999999999</v>
       </c>
-      <c r="G72" s="4">
-        <f t="shared" ref="G72:G100" si="2">F72*1.22</f>
+      <c r="L72" s="4">
+        <f t="shared" ref="L72:L100" si="2">K72*1.22</f>
         <v>0.74541999999999997</v>
       </c>
-      <c r="H72" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I72" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J72" s="10" t="s">
+      <c r="M72" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N72" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O72" s="10" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15">
       <c r="A73" s="9"/>
       <c r="B73" s="9" t="s">
         <v>284</v>
@@ -3612,31 +4643,39 @@
       <c r="C73" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D73" s="14">
+      <c r="D73" s="12"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="12"/>
+      <c r="H73" s="29">
+        <f>Tabella5[[#This Row],[Column2]]*Tabella5[[#This Row],[Mouser Price]]</f>
+        <v>0</v>
+      </c>
+      <c r="I73" s="14">
         <v>0.11124000000000001</v>
       </c>
-      <c r="E73" s="1">
+      <c r="J73" s="1">
         <v>10</v>
       </c>
-      <c r="F73" s="4">
+      <c r="K73" s="4">
         <f>Tabella5[[#This Row],[Unit price]]*Tabella5[[#This Row],[Min pcs sold or needed]]</f>
         <v>1.1124000000000001</v>
       </c>
-      <c r="G73" s="4">
+      <c r="L73" s="4">
         <f t="shared" si="2"/>
         <v>1.3571280000000001</v>
       </c>
-      <c r="H73" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I73" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J73" s="10" t="s">
+      <c r="M73" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N73" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O73" s="10" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15">
       <c r="A74" s="9"/>
       <c r="B74" s="9" t="s">
         <v>285</v>
@@ -3644,31 +4683,39 @@
       <c r="C74" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D74" s="14">
+      <c r="D74" s="12"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="12"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="29">
+        <f>Tabella5[[#This Row],[Column2]]*Tabella5[[#This Row],[Mouser Price]]</f>
+        <v>0</v>
+      </c>
+      <c r="I74" s="14">
         <v>0.11289</v>
       </c>
-      <c r="E74" s="1">
+      <c r="J74" s="1">
         <v>10</v>
       </c>
-      <c r="F74" s="4">
+      <c r="K74" s="4">
         <f>Tabella5[[#This Row],[Unit price]]*Tabella5[[#This Row],[Min pcs sold or needed]]</f>
         <v>1.1289</v>
       </c>
-      <c r="G74" s="4">
+      <c r="L74" s="4">
         <f t="shared" si="2"/>
         <v>1.3772580000000001</v>
       </c>
-      <c r="H74" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I74" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J74" s="10" t="s">
+      <c r="M74" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N74" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O74" s="10" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15">
       <c r="A75" s="9"/>
       <c r="B75" s="9" t="s">
         <v>286</v>
@@ -3676,31 +4723,39 @@
       <c r="C75" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D75" s="14">
+      <c r="D75" s="12"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="12"/>
+      <c r="G75" s="12"/>
+      <c r="H75" s="29">
+        <f>Tabella5[[#This Row],[Column2]]*Tabella5[[#This Row],[Mouser Price]]</f>
+        <v>0</v>
+      </c>
+      <c r="I75" s="14">
         <v>6.11E-3</v>
       </c>
-      <c r="E75" s="1">
+      <c r="J75" s="1">
         <v>100</v>
       </c>
-      <c r="F75" s="4">
+      <c r="K75" s="4">
         <f>Tabella5[[#This Row],[Unit price]]*Tabella5[[#This Row],[Min pcs sold or needed]]</f>
         <v>0.61099999999999999</v>
       </c>
-      <c r="G75" s="4">
+      <c r="L75" s="4">
         <f t="shared" si="2"/>
         <v>0.74541999999999997</v>
       </c>
-      <c r="H75" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I75" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J75" s="10" t="s">
+      <c r="M75" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N75" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O75" s="10" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15">
       <c r="A76" s="9"/>
       <c r="B76" s="9" t="s">
         <v>287</v>
@@ -3708,31 +4763,39 @@
       <c r="C76" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="D76" s="14">
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="12"/>
+      <c r="G76" s="12"/>
+      <c r="H76" s="29">
+        <f>Tabella5[[#This Row],[Column2]]*Tabella5[[#This Row],[Mouser Price]]</f>
+        <v>0</v>
+      </c>
+      <c r="I76" s="14">
         <v>0.46</v>
       </c>
-      <c r="E76" s="1">
-        <v>5</v>
-      </c>
-      <c r="F76" s="4">
+      <c r="J76" s="1">
+        <v>5</v>
+      </c>
+      <c r="K76" s="4">
         <f>Tabella5[[#This Row],[Unit price]]*Tabella5[[#This Row],[Min pcs sold or needed]]</f>
         <v>2.3000000000000003</v>
       </c>
-      <c r="G76" s="4">
+      <c r="L76" s="4">
         <f t="shared" si="2"/>
         <v>2.806</v>
       </c>
-      <c r="H76" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I76" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J76" s="10" t="s">
+      <c r="M76" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N76" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O76" s="10" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="77" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" s="10" customFormat="1">
       <c r="A77" s="9"/>
       <c r="B77" s="9" t="s">
         <v>288</v>
@@ -3740,31 +4803,39 @@
       <c r="C77" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="D77" s="14">
+      <c r="D77" s="12"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="12"/>
+      <c r="H77" s="29">
+        <f>Tabella5[[#This Row],[Column2]]*Tabella5[[#This Row],[Mouser Price]]</f>
+        <v>0</v>
+      </c>
+      <c r="I77" s="14">
         <v>2.3519999999999999E-2</v>
       </c>
-      <c r="E77" s="1">
+      <c r="J77" s="1">
         <v>100</v>
       </c>
-      <c r="F77" s="4">
+      <c r="K77" s="4">
         <f>Tabella5[[#This Row],[Unit price]]*Tabella5[[#This Row],[Min pcs sold or needed]]</f>
         <v>2.3519999999999999</v>
       </c>
-      <c r="G77" s="4">
+      <c r="L77" s="4">
         <f t="shared" si="2"/>
         <v>2.86944</v>
       </c>
-      <c r="H77" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I77" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J77" s="10" t="s">
+      <c r="M77" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N77" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O77" s="10" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="78" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" s="10" customFormat="1">
       <c r="A78" s="9"/>
       <c r="B78" s="9" t="s">
         <v>289</v>
@@ -3772,31 +4843,39 @@
       <c r="C78" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="D78" s="14">
+      <c r="D78" s="12"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="12"/>
+      <c r="H78" s="29">
+        <f>Tabella5[[#This Row],[Column2]]*Tabella5[[#This Row],[Mouser Price]]</f>
+        <v>0</v>
+      </c>
+      <c r="I78" s="14">
         <v>0.23</v>
       </c>
-      <c r="E78" s="1">
+      <c r="J78" s="1">
         <v>10</v>
       </c>
-      <c r="F78" s="4">
+      <c r="K78" s="4">
         <f>Tabella5[[#This Row],[Unit price]]*Tabella5[[#This Row],[Min pcs sold or needed]]</f>
         <v>2.3000000000000003</v>
       </c>
-      <c r="G78" s="4">
+      <c r="L78" s="4">
         <f t="shared" si="2"/>
         <v>2.806</v>
       </c>
-      <c r="H78" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I78" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J78" s="10" t="s">
+      <c r="M78" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N78" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O78" s="10" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15">
       <c r="A79" s="9"/>
       <c r="B79" s="9" t="s">
         <v>290</v>
@@ -3804,31 +4883,39 @@
       <c r="C79" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="D79" s="14">
+      <c r="D79" s="12"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="12"/>
+      <c r="G79" s="12"/>
+      <c r="H79" s="29">
+        <f>Tabella5[[#This Row],[Column2]]*Tabella5[[#This Row],[Mouser Price]]</f>
+        <v>0</v>
+      </c>
+      <c r="I79" s="14">
         <v>0.22</v>
       </c>
-      <c r="E79" s="1">
+      <c r="J79" s="1">
         <v>3</v>
       </c>
-      <c r="F79" s="4">
+      <c r="K79" s="4">
         <f>Tabella5[[#This Row],[Unit price]]*Tabella5[[#This Row],[Min pcs sold or needed]]</f>
         <v>0.66</v>
       </c>
-      <c r="G79" s="4">
+      <c r="L79" s="4">
         <f t="shared" si="2"/>
         <v>0.80520000000000003</v>
       </c>
-      <c r="H79" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I79" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J79" s="10" t="s">
+      <c r="M79" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N79" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O79" s="10" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15">
       <c r="A80" s="9"/>
       <c r="B80" s="9" t="s">
         <v>299</v>
@@ -3836,31 +4923,39 @@
       <c r="C80" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="D80" s="14">
+      <c r="D80" s="12"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="12"/>
+      <c r="G80" s="12"/>
+      <c r="H80" s="29">
+        <f>Tabella5[[#This Row],[Column2]]*Tabella5[[#This Row],[Mouser Price]]</f>
+        <v>0</v>
+      </c>
+      <c r="I80" s="14">
         <v>4.34</v>
       </c>
-      <c r="E80" s="1">
+      <c r="J80" s="1">
         <v>1</v>
       </c>
-      <c r="F80" s="4">
+      <c r="K80" s="4">
         <f>Tabella5[[#This Row],[Unit price]]*Tabella5[[#This Row],[Min pcs sold or needed]]</f>
         <v>4.34</v>
       </c>
-      <c r="G80" s="4">
+      <c r="L80" s="4">
         <f t="shared" si="2"/>
         <v>5.2947999999999995</v>
       </c>
-      <c r="H80" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I80" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J80" s="10" t="s">
+      <c r="M80" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N80" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O80" s="10" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15">
       <c r="A81" s="9"/>
       <c r="B81" s="9" t="s">
         <v>229</v>
@@ -3868,31 +4963,39 @@
       <c r="C81" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D81" s="14">
+      <c r="D81" s="12"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="12"/>
+      <c r="G81" s="12"/>
+      <c r="H81" s="29">
+        <f>Tabella5[[#This Row],[Column2]]*Tabella5[[#This Row],[Mouser Price]]</f>
+        <v>0</v>
+      </c>
+      <c r="I81" s="14">
         <v>1.07</v>
       </c>
-      <c r="E81" s="1">
+      <c r="J81" s="1">
         <v>1</v>
       </c>
-      <c r="F81" s="4">
+      <c r="K81" s="4">
         <f>Tabella5[[#This Row],[Unit price]]*Tabella5[[#This Row],[Min pcs sold or needed]]</f>
         <v>1.07</v>
       </c>
-      <c r="G81" s="4">
+      <c r="L81" s="4">
         <f t="shared" si="2"/>
         <v>1.3054000000000001</v>
       </c>
-      <c r="H81" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I81" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J81" s="10" t="s">
+      <c r="M81" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N81" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O81" s="10" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15">
       <c r="A82" s="9"/>
       <c r="B82" s="9" t="s">
         <v>232</v>
@@ -3900,31 +5003,39 @@
       <c r="C82" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D82" s="14">
+      <c r="D82" s="12"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="12"/>
+      <c r="G82" s="12"/>
+      <c r="H82" s="29">
+        <f>Tabella5[[#This Row],[Column2]]*Tabella5[[#This Row],[Mouser Price]]</f>
+        <v>0</v>
+      </c>
+      <c r="I82" s="14">
         <v>0.1091</v>
       </c>
-      <c r="E82" s="1">
-        <v>5</v>
-      </c>
-      <c r="F82" s="4">
+      <c r="J82" s="1">
+        <v>5</v>
+      </c>
+      <c r="K82" s="4">
         <f>Tabella5[[#This Row],[Unit price]]*Tabella5[[#This Row],[Min pcs sold or needed]]</f>
         <v>0.54549999999999998</v>
       </c>
-      <c r="G82" s="4">
+      <c r="L82" s="4">
         <f t="shared" si="2"/>
         <v>0.66550999999999993</v>
       </c>
-      <c r="H82" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I82" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J82" s="10" t="s">
+      <c r="M82" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N82" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O82" s="10" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15">
       <c r="A83" s="9"/>
       <c r="B83" s="9" t="s">
         <v>231</v>
@@ -3932,31 +5043,39 @@
       <c r="C83" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D83" s="14">
+      <c r="D83" s="12"/>
+      <c r="E83" s="12"/>
+      <c r="F83" s="12"/>
+      <c r="G83" s="12"/>
+      <c r="H83" s="29">
+        <f>Tabella5[[#This Row],[Column2]]*Tabella5[[#This Row],[Mouser Price]]</f>
+        <v>0</v>
+      </c>
+      <c r="I83" s="14">
         <v>0.73750000000000004</v>
       </c>
-      <c r="E83" s="1">
+      <c r="J83" s="1">
         <v>1</v>
       </c>
-      <c r="F83" s="4">
+      <c r="K83" s="4">
         <f>Tabella5[[#This Row],[Unit price]]*Tabella5[[#This Row],[Min pcs sold or needed]]</f>
         <v>0.73750000000000004</v>
       </c>
-      <c r="G83" s="4">
+      <c r="L83" s="4">
         <f t="shared" si="2"/>
         <v>0.89975000000000005</v>
       </c>
-      <c r="H83" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I83" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J83" s="10" t="s">
+      <c r="M83" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N83" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O83" s="10" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15">
       <c r="A84" s="9"/>
       <c r="B84" s="9" t="s">
         <v>233</v>
@@ -3964,31 +5083,39 @@
       <c r="C84" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D84" s="14">
+      <c r="D84" s="12"/>
+      <c r="E84" s="12"/>
+      <c r="F84" s="12"/>
+      <c r="G84" s="12"/>
+      <c r="H84" s="29">
+        <f>Tabella5[[#This Row],[Column2]]*Tabella5[[#This Row],[Mouser Price]]</f>
+        <v>0</v>
+      </c>
+      <c r="I84" s="14">
         <v>5.69</v>
       </c>
-      <c r="E84" s="1">
+      <c r="J84" s="1">
         <v>1</v>
       </c>
-      <c r="F84" s="4">
+      <c r="K84" s="4">
         <f>Tabella5[[#This Row],[Unit price]]*Tabella5[[#This Row],[Min pcs sold or needed]]</f>
         <v>5.69</v>
       </c>
-      <c r="G84" s="4">
+      <c r="L84" s="4">
         <f t="shared" si="2"/>
         <v>6.9418000000000006</v>
       </c>
-      <c r="H84" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I84" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J84" s="10" t="s">
+      <c r="M84" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N84" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O84" s="10" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15">
       <c r="A85" s="21"/>
       <c r="B85" s="9" t="s">
         <v>228</v>
@@ -3996,31 +5123,39 @@
       <c r="C85" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D85" s="14">
+      <c r="D85" s="12"/>
+      <c r="E85" s="12"/>
+      <c r="F85" s="12"/>
+      <c r="G85" s="12"/>
+      <c r="H85" s="29">
+        <f>Tabella5[[#This Row],[Column2]]*Tabella5[[#This Row],[Mouser Price]]</f>
+        <v>0</v>
+      </c>
+      <c r="I85" s="14">
         <v>6.3</v>
       </c>
-      <c r="E85" s="1">
+      <c r="J85" s="1">
         <v>1</v>
       </c>
-      <c r="F85" s="4">
+      <c r="K85" s="4">
         <f>Tabella5[[#This Row],[Unit price]]*Tabella5[[#This Row],[Min pcs sold or needed]]</f>
         <v>6.3</v>
       </c>
-      <c r="G85" s="4">
+      <c r="L85" s="4">
         <f t="shared" si="2"/>
         <v>7.6859999999999999</v>
       </c>
-      <c r="H85" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I85" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J85" s="10" t="s">
+      <c r="M85" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N85" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O85" s="10" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15">
       <c r="A86" s="21"/>
       <c r="B86" s="9" t="s">
         <v>292</v>
@@ -4028,42 +5163,58 @@
       <c r="C86" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D86" s="14">
+      <c r="D86" s="12"/>
+      <c r="E86" s="12"/>
+      <c r="F86" s="12"/>
+      <c r="G86" s="12"/>
+      <c r="H86" s="29">
+        <f>Tabella5[[#This Row],[Column2]]*Tabella5[[#This Row],[Mouser Price]]</f>
+        <v>0</v>
+      </c>
+      <c r="I86" s="14">
         <v>0.44</v>
       </c>
-      <c r="E86" s="1">
+      <c r="J86" s="1">
         <v>3</v>
       </c>
-      <c r="F86" s="4">
+      <c r="K86" s="4">
         <f>Tabella5[[#This Row],[Unit price]]*Tabella5[[#This Row],[Min pcs sold or needed]]</f>
         <v>1.32</v>
       </c>
-      <c r="G86" s="4">
+      <c r="L86" s="4">
         <f t="shared" si="2"/>
         <v>1.6104000000000001</v>
       </c>
-      <c r="H86" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I86" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J86" s="10" t="s">
+      <c r="M86" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N86" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O86" s="10" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15">
       <c r="A87" s="21"/>
       <c r="B87" s="21"/>
       <c r="C87" s="12"/>
-      <c r="E87" s="1"/>
-      <c r="F87" s="4"/>
-      <c r="G87" s="4"/>
-      <c r="H87" s="11"/>
-      <c r="I87" s="9"/>
-      <c r="J87" s="10"/>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D87" s="12"/>
+      <c r="E87" s="12"/>
+      <c r="F87" s="12"/>
+      <c r="G87" s="12"/>
+      <c r="H87" s="29">
+        <f>Tabella5[[#This Row],[Column2]]*Tabella5[[#This Row],[Mouser Price]]</f>
+        <v>0</v>
+      </c>
+      <c r="J87" s="1"/>
+      <c r="K87" s="4"/>
+      <c r="L87" s="4"/>
+      <c r="M87" s="11"/>
+      <c r="N87" s="9"/>
+      <c r="O87" s="10"/>
+    </row>
+    <row r="88" spans="1:15">
       <c r="A88" s="9"/>
       <c r="B88" s="9" t="s">
         <v>291</v>
@@ -4071,31 +5222,39 @@
       <c r="C88" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D88" s="14">
+      <c r="D88" s="12"/>
+      <c r="E88" s="12"/>
+      <c r="F88" s="12"/>
+      <c r="G88" s="12"/>
+      <c r="H88" s="29">
+        <f>Tabella5[[#This Row],[Column2]]*Tabella5[[#This Row],[Mouser Price]]</f>
+        <v>0</v>
+      </c>
+      <c r="I88" s="14">
         <v>1.26</v>
       </c>
-      <c r="E88" s="1">
+      <c r="J88" s="1">
         <v>1</v>
       </c>
-      <c r="F88" s="4">
+      <c r="K88" s="4">
         <f>Tabella5[[#This Row],[Unit price]]*Tabella5[[#This Row],[Min pcs sold or needed]]</f>
         <v>1.26</v>
       </c>
-      <c r="G88" s="4">
+      <c r="L88" s="4">
         <f t="shared" si="2"/>
         <v>1.5371999999999999</v>
       </c>
-      <c r="H88" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I88" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J88" s="10" t="s">
+      <c r="M88" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N88" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O88" s="10" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15">
       <c r="A89" s="9"/>
       <c r="B89" s="9" t="s">
         <v>293</v>
@@ -4103,31 +5262,39 @@
       <c r="C89" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D89" s="14">
+      <c r="D89" s="12"/>
+      <c r="E89" s="12"/>
+      <c r="F89" s="12"/>
+      <c r="G89" s="12"/>
+      <c r="H89" s="29">
+        <f>Tabella5[[#This Row],[Column2]]*Tabella5[[#This Row],[Mouser Price]]</f>
+        <v>0</v>
+      </c>
+      <c r="I89" s="14">
         <v>3.26</v>
       </c>
-      <c r="E89" s="1">
+      <c r="J89" s="1">
         <v>3</v>
       </c>
-      <c r="F89" s="4">
+      <c r="K89" s="4">
         <f>Tabella5[[#This Row],[Unit price]]*Tabella5[[#This Row],[Min pcs sold or needed]]</f>
         <v>9.7799999999999994</v>
       </c>
-      <c r="G89" s="4">
+      <c r="L89" s="4">
         <f t="shared" si="2"/>
         <v>11.9316</v>
       </c>
-      <c r="H89" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I89" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J89" s="10" t="s">
+      <c r="M89" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N89" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O89" s="10" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15">
       <c r="A90" s="9"/>
       <c r="B90" s="9" t="s">
         <v>294</v>
@@ -4135,31 +5302,39 @@
       <c r="C90" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D90" s="14">
+      <c r="D90" s="12"/>
+      <c r="E90" s="12"/>
+      <c r="F90" s="12"/>
+      <c r="G90" s="12"/>
+      <c r="H90" s="29">
+        <f>Tabella5[[#This Row],[Column2]]*Tabella5[[#This Row],[Mouser Price]]</f>
+        <v>0</v>
+      </c>
+      <c r="I90" s="14">
         <v>1.87</v>
       </c>
-      <c r="E90" s="1">
+      <c r="J90" s="1">
         <v>2</v>
       </c>
-      <c r="F90" s="4">
+      <c r="K90" s="4">
         <f>Tabella5[[#This Row],[Unit price]]*Tabella5[[#This Row],[Min pcs sold or needed]]</f>
         <v>3.74</v>
       </c>
-      <c r="G90" s="4">
+      <c r="L90" s="4">
         <f t="shared" si="2"/>
         <v>4.5628000000000002</v>
       </c>
-      <c r="H90" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I90" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J90" s="10" t="s">
+      <c r="M90" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N90" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O90" s="10" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15">
       <c r="A91" s="9"/>
       <c r="B91" s="9" t="s">
         <v>230</v>
@@ -4167,31 +5342,39 @@
       <c r="C91" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="D91" s="14">
+      <c r="D91" s="12"/>
+      <c r="E91" s="12"/>
+      <c r="F91" s="12"/>
+      <c r="G91" s="12"/>
+      <c r="H91" s="29">
+        <f>Tabella5[[#This Row],[Column2]]*Tabella5[[#This Row],[Mouser Price]]</f>
+        <v>0</v>
+      </c>
+      <c r="I91" s="14">
         <v>0.495</v>
       </c>
-      <c r="E91" s="1">
+      <c r="J91" s="1">
         <v>2</v>
       </c>
-      <c r="F91" s="4">
+      <c r="K91" s="4">
         <f>Tabella5[[#This Row],[Unit price]]*Tabella5[[#This Row],[Min pcs sold or needed]]</f>
         <v>0.99</v>
       </c>
-      <c r="G91" s="4">
+      <c r="L91" s="4">
         <f t="shared" si="2"/>
         <v>1.2078</v>
       </c>
-      <c r="H91" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I91" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J91" s="10" t="s">
+      <c r="M91" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N91" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O91" s="10" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15">
       <c r="A92" s="9"/>
       <c r="B92" s="9" t="s">
         <v>295</v>
@@ -4199,31 +5382,39 @@
       <c r="C92" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="D92" s="14">
+      <c r="D92" s="12"/>
+      <c r="E92" s="12"/>
+      <c r="F92" s="12"/>
+      <c r="G92" s="12"/>
+      <c r="H92" s="29">
+        <f>Tabella5[[#This Row],[Column2]]*Tabella5[[#This Row],[Mouser Price]]</f>
+        <v>0</v>
+      </c>
+      <c r="I92" s="14">
         <v>3.1199999999999999E-2</v>
       </c>
-      <c r="E92" s="1">
+      <c r="J92" s="1">
         <v>25</v>
       </c>
-      <c r="F92" s="4">
+      <c r="K92" s="4">
         <f>Tabella5[[#This Row],[Unit price]]*Tabella5[[#This Row],[Min pcs sold or needed]]</f>
         <v>0.77999999999999992</v>
       </c>
-      <c r="G92" s="4">
+      <c r="L92" s="4">
         <f t="shared" si="2"/>
         <v>0.95159999999999989</v>
       </c>
-      <c r="H92" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I92" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J92" s="10" t="s">
+      <c r="M92" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N92" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O92" s="10" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15">
       <c r="A93" s="9"/>
       <c r="B93" s="9" t="s">
         <v>296</v>
@@ -4231,31 +5422,39 @@
       <c r="C93" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="D93" s="14">
+      <c r="D93" s="12"/>
+      <c r="E93" s="12"/>
+      <c r="F93" s="12"/>
+      <c r="G93" s="12"/>
+      <c r="H93" s="29">
+        <f>Tabella5[[#This Row],[Column2]]*Tabella5[[#This Row],[Mouser Price]]</f>
+        <v>0</v>
+      </c>
+      <c r="I93" s="14">
         <v>3.1199999999999999E-2</v>
       </c>
-      <c r="E93" s="1">
+      <c r="J93" s="1">
         <v>25</v>
       </c>
-      <c r="F93" s="4">
+      <c r="K93" s="4">
         <f>Tabella5[[#This Row],[Unit price]]*Tabella5[[#This Row],[Min pcs sold or needed]]</f>
         <v>0.77999999999999992</v>
       </c>
-      <c r="G93" s="4">
+      <c r="L93" s="4">
         <f t="shared" si="2"/>
         <v>0.95159999999999989</v>
       </c>
-      <c r="H93" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I93" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J93" s="10" t="s">
+      <c r="M93" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N93" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O93" s="10" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15">
       <c r="A94" s="9"/>
       <c r="B94" s="9" t="s">
         <v>254</v>
@@ -4263,31 +5462,39 @@
       <c r="C94" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="D94" s="14">
+      <c r="D94" s="12"/>
+      <c r="E94" s="12"/>
+      <c r="F94" s="12"/>
+      <c r="G94" s="12"/>
+      <c r="H94" s="29">
+        <f>Tabella5[[#This Row],[Column2]]*Tabella5[[#This Row],[Mouser Price]]</f>
+        <v>0</v>
+      </c>
+      <c r="I94" s="14">
         <v>0.104</v>
       </c>
-      <c r="E94" s="1">
+      <c r="J94" s="1">
         <v>10</v>
       </c>
-      <c r="F94" s="4">
+      <c r="K94" s="4">
         <f>Tabella5[[#This Row],[Unit price]]*Tabella5[[#This Row],[Min pcs sold or needed]]</f>
         <v>1.04</v>
       </c>
-      <c r="G94" s="4">
+      <c r="L94" s="4">
         <f t="shared" si="2"/>
         <v>1.2687999999999999</v>
       </c>
-      <c r="H94" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I94" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J94" s="10" t="s">
+      <c r="M94" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N94" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O94" s="10" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15">
       <c r="A95" s="9"/>
       <c r="B95" s="9" t="s">
         <v>297</v>
@@ -4295,31 +5502,39 @@
       <c r="C95" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="D95" s="14">
+      <c r="D95" s="12"/>
+      <c r="E95" s="12"/>
+      <c r="F95" s="12"/>
+      <c r="G95" s="12"/>
+      <c r="H95" s="29">
+        <f>Tabella5[[#This Row],[Column2]]*Tabella5[[#This Row],[Mouser Price]]</f>
+        <v>0</v>
+      </c>
+      <c r="I95" s="14">
         <v>3.1199999999999999E-2</v>
       </c>
-      <c r="E95" s="1">
+      <c r="J95" s="1">
         <v>25</v>
       </c>
-      <c r="F95" s="4">
+      <c r="K95" s="4">
         <f>Tabella5[[#This Row],[Unit price]]*Tabella5[[#This Row],[Min pcs sold or needed]]</f>
         <v>0.77999999999999992</v>
       </c>
-      <c r="G95" s="4">
+      <c r="L95" s="4">
         <f t="shared" si="2"/>
         <v>0.95159999999999989</v>
       </c>
-      <c r="H95" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I95" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J95" s="10" t="s">
+      <c r="M95" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N95" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O95" s="10" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15">
       <c r="A96" s="9"/>
       <c r="B96" s="9" t="s">
         <v>298</v>
@@ -4327,31 +5542,39 @@
       <c r="C96" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="D96" s="14">
+      <c r="D96" s="12"/>
+      <c r="E96" s="12"/>
+      <c r="F96" s="12"/>
+      <c r="G96" s="12"/>
+      <c r="H96" s="29">
+        <f>Tabella5[[#This Row],[Column2]]*Tabella5[[#This Row],[Mouser Price]]</f>
+        <v>0</v>
+      </c>
+      <c r="I96" s="14">
         <v>3.55</v>
       </c>
-      <c r="E96" s="1">
+      <c r="J96" s="1">
         <v>1</v>
       </c>
-      <c r="F96" s="4">
+      <c r="K96" s="4">
         <f>Tabella5[[#This Row],[Unit price]]*Tabella5[[#This Row],[Min pcs sold or needed]]</f>
         <v>3.55</v>
       </c>
-      <c r="G96" s="4">
+      <c r="L96" s="4">
         <f t="shared" si="2"/>
         <v>4.3309999999999995</v>
       </c>
-      <c r="H96" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I96" s="9" t="s">
+      <c r="M96" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N96" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="J96" s="10" t="s">
+      <c r="O96" s="10" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15">
       <c r="A97" s="9"/>
       <c r="B97" s="9" t="s">
         <v>301</v>
@@ -4359,31 +5582,39 @@
       <c r="C97" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="D97" s="14">
+      <c r="D97" s="12"/>
+      <c r="E97" s="12"/>
+      <c r="F97" s="12"/>
+      <c r="G97" s="12"/>
+      <c r="H97" s="29">
+        <f>Tabella5[[#This Row],[Column2]]*Tabella5[[#This Row],[Mouser Price]]</f>
+        <v>0</v>
+      </c>
+      <c r="I97" s="14">
         <v>0.62</v>
       </c>
-      <c r="E97" s="1">
+      <c r="J97" s="1">
         <v>1</v>
       </c>
-      <c r="F97" s="4">
+      <c r="K97" s="4">
         <f>Tabella5[[#This Row],[Unit price]]*Tabella5[[#This Row],[Min pcs sold or needed]]</f>
         <v>0.62</v>
       </c>
-      <c r="G97" s="4">
+      <c r="L97" s="4">
         <f t="shared" si="2"/>
         <v>0.75639999999999996</v>
       </c>
-      <c r="H97" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I97" s="9" t="s">
+      <c r="M97" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N97" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="J97" s="10" t="s">
+      <c r="O97" s="10" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15">
       <c r="A98" s="9"/>
       <c r="B98" s="9" t="s">
         <v>300</v>
@@ -4391,31 +5622,39 @@
       <c r="C98" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="D98" s="14">
+      <c r="D98" s="12"/>
+      <c r="E98" s="12"/>
+      <c r="F98" s="12"/>
+      <c r="G98" s="12"/>
+      <c r="H98" s="29">
+        <f>Tabella5[[#This Row],[Column2]]*Tabella5[[#This Row],[Mouser Price]]</f>
+        <v>0</v>
+      </c>
+      <c r="I98" s="14">
         <v>1.61</v>
       </c>
-      <c r="E98" s="1">
+      <c r="J98" s="1">
         <v>1</v>
       </c>
-      <c r="F98" s="4">
+      <c r="K98" s="4">
         <f>Tabella5[[#This Row],[Unit price]]*Tabella5[[#This Row],[Min pcs sold or needed]]</f>
         <v>1.61</v>
       </c>
-      <c r="G98" s="4">
+      <c r="L98" s="4">
         <f t="shared" si="2"/>
         <v>1.9642000000000002</v>
       </c>
-      <c r="H98" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I98" s="9" t="s">
+      <c r="M98" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N98" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="J98" s="10" t="s">
+      <c r="O98" s="10" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15">
       <c r="A99" s="9"/>
       <c r="B99" s="9" t="s">
         <v>302</v>
@@ -4423,31 +5662,39 @@
       <c r="C99" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="D99" s="14">
+      <c r="D99" s="12"/>
+      <c r="E99" s="12"/>
+      <c r="F99" s="12"/>
+      <c r="G99" s="12"/>
+      <c r="H99" s="29">
+        <f>Tabella5[[#This Row],[Column2]]*Tabella5[[#This Row],[Mouser Price]]</f>
+        <v>0</v>
+      </c>
+      <c r="I99" s="14">
         <v>0.59</v>
       </c>
-      <c r="E99" s="1">
+      <c r="J99" s="1">
         <v>3</v>
       </c>
-      <c r="F99" s="4">
+      <c r="K99" s="4">
         <f>Tabella5[[#This Row],[Unit price]]*Tabella5[[#This Row],[Min pcs sold or needed]]</f>
         <v>1.77</v>
       </c>
-      <c r="G99" s="4">
+      <c r="L99" s="4">
         <f t="shared" si="2"/>
         <v>2.1593999999999998</v>
       </c>
-      <c r="H99" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I99" s="9" t="s">
+      <c r="M99" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N99" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="J99" s="10" t="s">
+      <c r="O99" s="10" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15">
       <c r="A100" s="9"/>
       <c r="B100" s="9" t="s">
         <v>303</v>
@@ -4455,31 +5702,39 @@
       <c r="C100" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="D100" s="14">
+      <c r="D100" s="12"/>
+      <c r="E100" s="12"/>
+      <c r="F100" s="12"/>
+      <c r="G100" s="12"/>
+      <c r="H100" s="29">
+        <f>Tabella5[[#This Row],[Column2]]*Tabella5[[#This Row],[Mouser Price]]</f>
+        <v>0</v>
+      </c>
+      <c r="I100" s="14">
         <v>0.11700000000000001</v>
       </c>
-      <c r="E100" s="1">
-        <v>5</v>
-      </c>
-      <c r="F100" s="4">
+      <c r="J100" s="1">
+        <v>5</v>
+      </c>
+      <c r="K100" s="4">
         <f>Tabella5[[#This Row],[Unit price]]*Tabella5[[#This Row],[Min pcs sold or needed]]</f>
         <v>0.58500000000000008</v>
       </c>
-      <c r="G100" s="4">
+      <c r="L100" s="4">
         <f t="shared" si="2"/>
         <v>0.71370000000000011</v>
       </c>
-      <c r="H100" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I100" s="9" t="s">
+      <c r="M100" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N100" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="J100" s="10" t="s">
+      <c r="O100" s="10" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15">
       <c r="A101" s="9"/>
       <c r="B101" s="9" t="s">
         <v>304</v>
@@ -4487,31 +5742,39 @@
       <c r="C101" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="D101" s="14">
+      <c r="D101" s="12"/>
+      <c r="E101" s="12"/>
+      <c r="F101" s="12"/>
+      <c r="G101" s="12"/>
+      <c r="H101" s="29">
+        <f>Tabella5[[#This Row],[Column2]]*Tabella5[[#This Row],[Mouser Price]]</f>
+        <v>0</v>
+      </c>
+      <c r="I101" s="14">
         <v>8.7400000000000005E-2</v>
       </c>
-      <c r="E101" s="1">
+      <c r="J101" s="1">
         <v>10</v>
       </c>
-      <c r="F101" s="4">
+      <c r="K101" s="4">
         <f>Tabella5[[#This Row],[Unit price]]*Tabella5[[#This Row],[Min pcs sold or needed]]</f>
         <v>0.87400000000000011</v>
       </c>
-      <c r="G101" s="4">
-        <f t="shared" ref="G101:G107" si="3">F101*1.22</f>
+      <c r="L101" s="4">
+        <f t="shared" ref="L101:L107" si="3">K101*1.22</f>
         <v>1.0662800000000001</v>
       </c>
-      <c r="H101" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I101" s="9" t="s">
+      <c r="M101" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N101" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="J101" s="10" t="s">
+      <c r="O101" s="10" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15">
       <c r="A102" s="9"/>
       <c r="B102" s="9" t="s">
         <v>305</v>
@@ -4519,31 +5782,39 @@
       <c r="C102" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="D102" s="14">
+      <c r="D102" s="12"/>
+      <c r="E102" s="12"/>
+      <c r="F102" s="12"/>
+      <c r="G102" s="12"/>
+      <c r="H102" s="29">
+        <f>Tabella5[[#This Row],[Column2]]*Tabella5[[#This Row],[Mouser Price]]</f>
+        <v>0</v>
+      </c>
+      <c r="I102" s="14">
         <v>6.93E-2</v>
       </c>
-      <c r="E102" s="1">
+      <c r="J102" s="1">
         <v>10</v>
       </c>
-      <c r="F102" s="4">
+      <c r="K102" s="4">
         <f>Tabella5[[#This Row],[Unit price]]*Tabella5[[#This Row],[Min pcs sold or needed]]</f>
         <v>0.69300000000000006</v>
       </c>
-      <c r="G102" s="4">
+      <c r="L102" s="4">
         <f t="shared" si="3"/>
         <v>0.8454600000000001</v>
       </c>
-      <c r="H102" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I102" s="9" t="s">
+      <c r="M102" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N102" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="J102" s="10" t="s">
+      <c r="O102" s="10" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="103" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" s="10" customFormat="1">
       <c r="A103" s="9"/>
       <c r="B103" s="9" t="s">
         <v>306</v>
@@ -4551,31 +5822,39 @@
       <c r="C103" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="D103" s="14">
+      <c r="D103" s="12"/>
+      <c r="E103" s="12"/>
+      <c r="F103" s="12"/>
+      <c r="G103" s="12"/>
+      <c r="H103" s="29">
+        <f>Tabella5[[#This Row],[Column2]]*Tabella5[[#This Row],[Mouser Price]]</f>
+        <v>0</v>
+      </c>
+      <c r="I103" s="14">
         <v>0.105</v>
       </c>
-      <c r="E103" s="1">
-        <v>5</v>
-      </c>
-      <c r="F103" s="4">
+      <c r="J103" s="1">
+        <v>5</v>
+      </c>
+      <c r="K103" s="4">
         <f>Tabella5[[#This Row],[Unit price]]*Tabella5[[#This Row],[Min pcs sold or needed]]</f>
         <v>0.52500000000000002</v>
       </c>
-      <c r="G103" s="4">
+      <c r="L103" s="4">
         <f t="shared" si="3"/>
         <v>0.64049999999999996</v>
       </c>
-      <c r="H103" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I103" s="9" t="s">
+      <c r="M103" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N103" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="J103" s="10" t="s">
+      <c r="O103" s="10" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="104" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" s="10" customFormat="1">
       <c r="A104" s="9"/>
       <c r="B104" s="9" t="s">
         <v>307</v>
@@ -4583,31 +5862,39 @@
       <c r="C104" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="D104" s="14">
+      <c r="D104" s="12"/>
+      <c r="E104" s="12"/>
+      <c r="F104" s="12"/>
+      <c r="G104" s="12"/>
+      <c r="H104" s="29">
+        <f>Tabella5[[#This Row],[Column2]]*Tabella5[[#This Row],[Mouser Price]]</f>
+        <v>0</v>
+      </c>
+      <c r="I104" s="14">
         <v>2.2700000000000001E-2</v>
       </c>
-      <c r="E104" s="1">
+      <c r="J104" s="1">
         <v>25</v>
       </c>
-      <c r="F104" s="4">
+      <c r="K104" s="4">
         <f>Tabella5[[#This Row],[Unit price]]*Tabella5[[#This Row],[Min pcs sold or needed]]</f>
         <v>0.5675</v>
       </c>
-      <c r="G104" s="4">
+      <c r="L104" s="4">
         <f t="shared" si="3"/>
         <v>0.69235000000000002</v>
       </c>
-      <c r="H104" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I104" s="9" t="s">
+      <c r="M104" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N104" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="J104" s="10" t="s">
+      <c r="O104" s="10" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="105" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" s="10" customFormat="1">
       <c r="A105" s="9"/>
       <c r="B105" s="9" t="s">
         <v>308</v>
@@ -4615,31 +5902,39 @@
       <c r="C105" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="D105" s="14">
+      <c r="D105" s="12"/>
+      <c r="E105" s="12"/>
+      <c r="F105" s="12"/>
+      <c r="G105" s="12"/>
+      <c r="H105" s="29">
+        <f>Tabella5[[#This Row],[Column2]]*Tabella5[[#This Row],[Mouser Price]]</f>
+        <v>0</v>
+      </c>
+      <c r="I105" s="14">
         <v>0.16200000000000001</v>
       </c>
-      <c r="E105" s="1">
-        <v>5</v>
-      </c>
-      <c r="F105" s="4">
+      <c r="J105" s="1">
+        <v>5</v>
+      </c>
+      <c r="K105" s="4">
         <f>Tabella5[[#This Row],[Unit price]]*Tabella5[[#This Row],[Min pcs sold or needed]]</f>
         <v>0.81</v>
       </c>
-      <c r="G105" s="4">
+      <c r="L105" s="4">
         <f t="shared" si="3"/>
         <v>0.98820000000000008</v>
       </c>
-      <c r="H105" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I105" s="9" t="s">
+      <c r="M105" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N105" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="J105" s="10" t="s">
+      <c r="O105" s="10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15">
       <c r="A106" s="9"/>
       <c r="B106" s="9" t="s">
         <v>309</v>
@@ -4647,31 +5942,39 @@
       <c r="C106" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="D106" s="14">
+      <c r="D106" s="12"/>
+      <c r="E106" s="12"/>
+      <c r="F106" s="12"/>
+      <c r="G106" s="12"/>
+      <c r="H106" s="29">
+        <f>Tabella5[[#This Row],[Column2]]*Tabella5[[#This Row],[Mouser Price]]</f>
+        <v>0</v>
+      </c>
+      <c r="I106" s="14">
         <v>1.85</v>
       </c>
-      <c r="E106" s="1">
+      <c r="J106" s="1">
         <v>1</v>
       </c>
-      <c r="F106" s="4">
+      <c r="K106" s="4">
         <f>Tabella5[[#This Row],[Unit price]]*Tabella5[[#This Row],[Min pcs sold or needed]]</f>
         <v>1.85</v>
       </c>
-      <c r="G106" s="4">
+      <c r="L106" s="4">
         <f t="shared" si="3"/>
         <v>2.2570000000000001</v>
       </c>
-      <c r="H106" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I106" s="9" t="s">
+      <c r="M106" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N106" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="J106" s="10" t="s">
+      <c r="O106" s="10" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15">
       <c r="A107" s="9"/>
       <c r="B107" s="9" t="s">
         <v>310</v>
@@ -4679,341 +5982,385 @@
       <c r="C107" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="D107" s="14">
+      <c r="D107" s="12"/>
+      <c r="E107" s="12"/>
+      <c r="F107" s="12"/>
+      <c r="G107" s="12"/>
+      <c r="H107" s="29">
+        <f>Tabella5[[#This Row],[Column2]]*Tabella5[[#This Row],[Mouser Price]]</f>
+        <v>0</v>
+      </c>
+      <c r="I107" s="14">
         <v>1.88</v>
       </c>
-      <c r="E107" s="1">
+      <c r="J107" s="1">
         <v>3</v>
       </c>
-      <c r="F107" s="4">
+      <c r="K107" s="4">
         <f>Tabella5[[#This Row],[Unit price]]*Tabella5[[#This Row],[Min pcs sold or needed]]</f>
         <v>5.64</v>
       </c>
-      <c r="G107" s="4">
+      <c r="L107" s="4">
         <f t="shared" si="3"/>
         <v>6.8807999999999998</v>
       </c>
-      <c r="H107" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I107" s="9" t="s">
+      <c r="M107" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N107" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="J107" s="10" t="s">
+      <c r="O107" s="10" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15">
       <c r="A108" s="9"/>
       <c r="B108" s="9"/>
       <c r="C108" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="D108" s="20">
+      <c r="H108" s="26">
+        <f>Tabella5[[#This Row],[Column2]]*Tabella5[[#This Row],[Mouser Price]]</f>
+        <v>0</v>
+      </c>
+      <c r="I108" s="20">
         <v>0.13779</v>
       </c>
-      <c r="E108" s="1">
+      <c r="J108" s="1">
         <v>10</v>
       </c>
-      <c r="F108" s="4">
+      <c r="K108" s="4">
         <f>Tabella5[[#This Row],[Unit price]]*Tabella5[[#This Row],[Min pcs sold or needed]]</f>
         <v>1.3778999999999999</v>
       </c>
-      <c r="G108" s="4">
-        <f t="shared" ref="G108:G112" si="4">F108*1.22</f>
+      <c r="L108" s="4">
+        <f t="shared" ref="L108:L112" si="4">K108*1.22</f>
         <v>1.6810379999999998</v>
       </c>
-      <c r="H108" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I108" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J108" s="10"/>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M108" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N108" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O108" s="10"/>
+    </row>
+    <row r="109" spans="1:15">
       <c r="A109" s="9"/>
       <c r="B109" s="9"/>
       <c r="C109" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="D109" s="20">
+      <c r="H109" s="26">
+        <f>Tabella5[[#This Row],[Column2]]*Tabella5[[#This Row],[Mouser Price]]</f>
+        <v>0</v>
+      </c>
+      <c r="I109" s="20">
         <v>0.13779</v>
       </c>
-      <c r="E109" s="1">
+      <c r="J109" s="1">
         <v>10</v>
       </c>
-      <c r="F109" s="4">
+      <c r="K109" s="4">
         <f>Tabella5[[#This Row],[Unit price]]*Tabella5[[#This Row],[Min pcs sold or needed]]</f>
         <v>1.3778999999999999</v>
       </c>
-      <c r="G109" s="4">
+      <c r="L109" s="4">
         <f t="shared" si="4"/>
         <v>1.6810379999999998</v>
       </c>
-      <c r="H109" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I109" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J109" s="10"/>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M109" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N109" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O109" s="10"/>
+    </row>
+    <row r="110" spans="1:15">
       <c r="A110" s="9"/>
       <c r="B110" s="9"/>
       <c r="C110" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="D110" s="20">
+      <c r="H110" s="26">
+        <f>Tabella5[[#This Row],[Column2]]*Tabella5[[#This Row],[Mouser Price]]</f>
+        <v>0</v>
+      </c>
+      <c r="I110" s="20">
         <v>0.13779</v>
       </c>
-      <c r="E110" s="1">
+      <c r="J110" s="1">
         <v>10</v>
       </c>
-      <c r="F110" s="4">
+      <c r="K110" s="4">
         <f>Tabella5[[#This Row],[Unit price]]*Tabella5[[#This Row],[Min pcs sold or needed]]</f>
         <v>1.3778999999999999</v>
       </c>
-      <c r="G110" s="4">
+      <c r="L110" s="4">
         <f t="shared" si="4"/>
         <v>1.6810379999999998</v>
       </c>
-      <c r="H110" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I110" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J110" s="10"/>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M110" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N110" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O110" s="10"/>
+    </row>
+    <row r="111" spans="1:15">
       <c r="A111" s="9"/>
       <c r="B111" s="9"/>
       <c r="C111" s="10"/>
-      <c r="D111" s="20"/>
-      <c r="E111" s="1"/>
-      <c r="F111" s="4"/>
-      <c r="G111" s="4"/>
-      <c r="H111" s="11"/>
-      <c r="I111" s="9"/>
-      <c r="J111" s="10"/>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H111" s="26">
+        <f>Tabella5[[#This Row],[Column2]]*Tabella5[[#This Row],[Mouser Price]]</f>
+        <v>0</v>
+      </c>
+      <c r="I111" s="20"/>
+      <c r="J111" s="1"/>
+      <c r="K111" s="4"/>
+      <c r="L111" s="4"/>
+      <c r="M111" s="11"/>
+      <c r="N111" s="9"/>
+      <c r="O111" s="10"/>
+    </row>
+    <row r="112" spans="1:15">
       <c r="A112" s="9"/>
       <c r="B112" s="9"/>
       <c r="C112" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="D112" s="20">
+      <c r="H112" s="26">
+        <f>Tabella5[[#This Row],[Column2]]*Tabella5[[#This Row],[Mouser Price]]</f>
+        <v>0</v>
+      </c>
+      <c r="I112" s="20">
         <v>0.69299999999999995</v>
       </c>
-      <c r="E112" s="1">
+      <c r="J112" s="1">
         <v>2</v>
       </c>
-      <c r="F112" s="4">
+      <c r="K112" s="4">
         <f>Tabella5[[#This Row],[Unit price]]*Tabella5[[#This Row],[Min pcs sold or needed]]</f>
         <v>1.3859999999999999</v>
       </c>
-      <c r="G112" s="4">
+      <c r="L112" s="4">
         <f t="shared" si="4"/>
         <v>1.6909199999999998</v>
       </c>
-      <c r="H112" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I112" s="10" t="s">
+      <c r="M112" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N112" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="J112" s="10"/>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O112" s="10"/>
+    </row>
+    <row r="113" spans="1:16">
       <c r="A113" s="9"/>
       <c r="B113" s="9"/>
       <c r="C113" s="10"/>
-      <c r="D113" s="15"/>
-      <c r="E113" s="10"/>
-      <c r="F113" s="19" t="s">
+      <c r="I113" s="15"/>
+      <c r="J113" s="10"/>
+      <c r="K113" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="G113" s="19" t="s">
+      <c r="L113" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="H113" s="10"/>
-      <c r="J113" s="10"/>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M113" s="10"/>
+      <c r="O113" s="10"/>
+    </row>
+    <row r="114" spans="1:16">
       <c r="C114" s="10"/>
-      <c r="E114" s="10"/>
-      <c r="F114" s="19"/>
-      <c r="G114" s="19"/>
-      <c r="H114" s="10"/>
       <c r="J114" s="10"/>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K114" s="19"/>
+      <c r="L114" s="19"/>
+      <c r="M114" s="10"/>
+      <c r="O114" s="10"/>
+    </row>
+    <row r="115" spans="1:16">
       <c r="C115" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="D115" s="16"/>
-      <c r="E115" s="8"/>
-      <c r="F115" s="8">
+      <c r="D115" s="7"/>
+      <c r="E115" s="7"/>
+      <c r="F115" s="7"/>
+      <c r="G115" s="7"/>
+      <c r="H115" s="31"/>
+      <c r="I115" s="16"/>
+      <c r="J115" s="8"/>
+      <c r="K115" s="8">
         <f>SUM(Tabella5[Total w/o VAT])</f>
         <v>281.6687399999999</v>
       </c>
-      <c r="G115" s="8">
+      <c r="L115" s="8">
         <f>SUM(Tabella5[Total with VAT])</f>
         <v>343.63586279999987</v>
       </c>
-      <c r="H115" s="10"/>
-      <c r="J115" s="10"/>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M115" s="10"/>
+      <c r="O115" s="10"/>
+    </row>
+    <row r="116" spans="1:16">
       <c r="C116" s="10"/>
-      <c r="E116" s="10"/>
-      <c r="F116" s="10"/>
-      <c r="G116" s="10"/>
-      <c r="H116" s="10"/>
       <c r="J116" s="10"/>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K116" s="10"/>
+      <c r="L116" s="10"/>
+      <c r="M116" s="10"/>
+      <c r="O116" s="10"/>
+    </row>
+    <row r="117" spans="1:16">
       <c r="C117" s="10"/>
-      <c r="E117" s="10"/>
-      <c r="F117" s="3"/>
-      <c r="G117" s="10"/>
-      <c r="H117" s="10"/>
       <c r="J117" s="10"/>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K117" s="3"/>
+      <c r="L117" s="10"/>
+      <c r="M117" s="10"/>
+      <c r="O117" s="10"/>
+    </row>
+    <row r="118" spans="1:16">
       <c r="C118" s="10"/>
-      <c r="E118" s="10"/>
-      <c r="F118" s="10"/>
-      <c r="G118" s="10"/>
-      <c r="H118" s="10"/>
       <c r="J118" s="10"/>
       <c r="K118" s="10"/>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L118" s="10"/>
+      <c r="M118" s="10"/>
+      <c r="O118" s="10"/>
+      <c r="P118" s="10"/>
+    </row>
+    <row r="119" spans="1:16">
       <c r="C119" s="10"/>
-      <c r="E119" s="10"/>
-      <c r="F119" s="10"/>
-      <c r="G119" s="10"/>
-      <c r="H119" s="10"/>
       <c r="J119" s="10"/>
       <c r="K119" s="10"/>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L119" s="10"/>
+      <c r="M119" s="10"/>
+      <c r="O119" s="10"/>
+      <c r="P119" s="10"/>
+    </row>
+    <row r="120" spans="1:16">
       <c r="C120" s="10"/>
-      <c r="E120" s="10"/>
-      <c r="F120" s="10"/>
-      <c r="G120" s="10"/>
-      <c r="H120" s="10"/>
       <c r="J120" s="10"/>
       <c r="K120" s="10"/>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L120" s="10"/>
+      <c r="M120" s="10"/>
+      <c r="O120" s="10"/>
+      <c r="P120" s="10"/>
+    </row>
+    <row r="121" spans="1:16">
       <c r="C121" s="10"/>
-      <c r="E121" s="10"/>
-      <c r="F121" s="10"/>
-      <c r="G121" s="10"/>
-      <c r="H121" s="10"/>
       <c r="J121" s="10"/>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K121" s="10"/>
+      <c r="L121" s="10"/>
+      <c r="M121" s="10"/>
+      <c r="O121" s="10"/>
+    </row>
+    <row r="122" spans="1:16">
       <c r="C122" s="10"/>
-      <c r="E122" s="10"/>
-      <c r="F122" s="10"/>
-      <c r="G122" s="10"/>
-      <c r="H122" s="10"/>
       <c r="J122" s="10"/>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K122" s="10"/>
+      <c r="L122" s="10"/>
+      <c r="M122" s="10"/>
+      <c r="O122" s="10"/>
+    </row>
+    <row r="123" spans="1:16">
       <c r="C123" s="10"/>
-      <c r="E123" s="10"/>
-      <c r="F123" s="10"/>
-      <c r="G123" s="10"/>
-      <c r="H123" s="10"/>
       <c r="J123" s="10"/>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K123" s="10"/>
+      <c r="L123" s="10"/>
+      <c r="M123" s="10"/>
+      <c r="O123" s="10"/>
+    </row>
+    <row r="124" spans="1:16">
       <c r="C124" s="10"/>
-      <c r="E124" s="10"/>
-      <c r="F124" s="10"/>
-      <c r="G124" s="10"/>
-      <c r="H124" s="10"/>
       <c r="J124" s="10"/>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K124" s="10"/>
+      <c r="L124" s="10"/>
+      <c r="M124" s="10"/>
+      <c r="O124" s="10"/>
+    </row>
+    <row r="125" spans="1:16">
       <c r="C125" s="10"/>
-      <c r="E125" s="10"/>
-      <c r="F125" s="10"/>
-      <c r="G125" s="10"/>
-      <c r="H125" s="10"/>
       <c r="J125" s="10"/>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K125" s="10"/>
+      <c r="L125" s="10"/>
+      <c r="M125" s="10"/>
+      <c r="O125" s="10"/>
+    </row>
+    <row r="126" spans="1:16">
       <c r="C126" s="10"/>
-      <c r="E126" s="10"/>
-      <c r="F126" s="10"/>
-      <c r="G126" s="10"/>
-      <c r="H126" s="10"/>
       <c r="J126" s="10"/>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K126" s="10"/>
+      <c r="L126" s="10"/>
+      <c r="M126" s="10"/>
+      <c r="O126" s="10"/>
+    </row>
+    <row r="127" spans="1:16">
       <c r="C127" s="10"/>
-      <c r="E127" s="10"/>
-      <c r="F127" s="10"/>
-      <c r="G127" s="10"/>
-      <c r="H127" s="10"/>
       <c r="J127" s="10"/>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K127" s="10"/>
+      <c r="L127" s="10"/>
+      <c r="M127" s="10"/>
+      <c r="O127" s="10"/>
+    </row>
+    <row r="128" spans="1:16">
       <c r="C128" s="10"/>
-      <c r="E128" s="10"/>
-      <c r="F128" s="10"/>
-      <c r="G128" s="10"/>
-      <c r="H128" s="10"/>
       <c r="J128" s="10"/>
-    </row>
-    <row r="129" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="K128" s="10"/>
+      <c r="L128" s="10"/>
+      <c r="M128" s="10"/>
+      <c r="O128" s="10"/>
+    </row>
+    <row r="129" spans="3:15">
       <c r="C129" s="10"/>
-      <c r="E129" s="10"/>
-      <c r="F129" s="10"/>
-      <c r="G129" s="10"/>
-      <c r="H129" s="10"/>
       <c r="J129" s="10"/>
-    </row>
-    <row r="130" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="K129" s="10"/>
+      <c r="L129" s="10"/>
+      <c r="M129" s="10"/>
+      <c r="O129" s="10"/>
+    </row>
+    <row r="130" spans="3:15">
       <c r="C130" s="10"/>
-      <c r="E130" s="10"/>
-      <c r="F130" s="10"/>
-      <c r="G130" s="10"/>
-      <c r="H130" s="10"/>
       <c r="J130" s="10"/>
-    </row>
-    <row r="131" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="K130" s="10"/>
+      <c r="L130" s="10"/>
+      <c r="M130" s="10"/>
+      <c r="O130" s="10"/>
+    </row>
+    <row r="131" spans="3:15">
       <c r="C131" s="10"/>
-      <c r="E131" s="10"/>
-      <c r="F131" s="10"/>
-      <c r="G131" s="10"/>
-      <c r="H131" s="10"/>
       <c r="J131" s="10"/>
-    </row>
-    <row r="132" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="K131" s="10"/>
+      <c r="L131" s="10"/>
+      <c r="M131" s="10"/>
+      <c r="O131" s="10"/>
+    </row>
+    <row r="132" spans="3:15">
       <c r="C132" s="10"/>
-      <c r="E132" s="10"/>
-      <c r="F132" s="10"/>
-      <c r="G132" s="10"/>
-      <c r="H132" s="10"/>
       <c r="J132" s="10"/>
+      <c r="K132" s="10"/>
+      <c r="L132" s="10"/>
+      <c r="M132" s="10"/>
+      <c r="O132" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:J5"/>
+    <mergeCell ref="B2:O5"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D8" r:id="rId1"/>
+    <hyperlink ref="D9" r:id="rId2"/>
+    <hyperlink ref="D11" r:id="rId3"/>
+    <hyperlink ref="D18" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="45" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="45" fitToHeight="0" orientation="landscape"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/bom_unisolder.xlsx
+++ b/bom_unisolder.xlsx
@@ -31,7 +31,7 @@
     <t xml:space="preserve">Component</t>
   </si>
   <si>
-    <t xml:space="preserve">Mouser PN</t>
+    <t xml:space="preserve">Digikey PN</t>
   </si>
   <si>
     <t xml:space="preserve">BOM QTY</t>
@@ -997,7 +997,7 @@
     <t xml:space="preserve">http://www.tme.eu/it/details/mx-500075-1517/connettori-usb-e-ieee-1394/molex/5000751517/</t>
   </si>
   <si>
-    <t xml:space="preserve">U1</t>
+    <t xml:space="preserve">Y1</t>
   </si>
   <si>
     <t xml:space="preserve">8Mhz HC49US quartz</t>
@@ -1626,7 +1626,7 @@
   <tableColumns count="15">
     <tableColumn id="1" name="REF."/>
     <tableColumn id="2" name="Component"/>
-    <tableColumn id="3" name="Mouser PN"/>
+    <tableColumn id="3" name="Digikey PN"/>
     <tableColumn id="4" name="BOM QTY"/>
     <tableColumn id="5" name="Order QTY"/>
     <tableColumn id="6" name="Mouser Price"/>
@@ -1650,8 +1650,8 @@
   </sheetPr>
   <dimension ref="A2:P1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="93" zoomScaleNormal="93" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="93" zoomScaleNormal="93" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B91" activeCellId="0" sqref="B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
